--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private\חדש למאמר\Git\nature-reserves-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BFAD1C-2ADB-483B-A7E9-F5542B3A6660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73FA19-187F-46F0-AE1C-EE6FDC049465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גלי חום - מבחן וילקוסו" sheetId="14" r:id="rId1"/>
@@ -933,66 +933,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1018,11 +958,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34AC0A3-0725-45A6-83E8-D768584D2706}">
   <dimension ref="A2:O305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1318,7 +1318,7 @@
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="78" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="58" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="44" customWidth="1"/>
@@ -1349,52 +1349,52 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="60"/>
       <c r="H4"/>
       <c r="J4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="62"/>
       <c r="H5"/>
       <c r="J5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="59"/>
+      <c r="L5" s="62"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="64"/>
       <c r="H6"/>
       <c r="J6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="55"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1463,82 +1463,82 @@
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="79">
-        <v>0</v>
-      </c>
-      <c r="C10" s="80"/>
+      <c r="B10" s="67">
+        <v>0</v>
+      </c>
+      <c r="C10" s="68"/>
       <c r="H10"/>
       <c r="J10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="61">
         <v>1E-4</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="65">
         <v>288</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="66"/>
       <c r="H11"/>
       <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="65">
         <v>184</v>
       </c>
-      <c r="L11" s="51"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="H15" s="74"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="70" t="s">
+      <c r="J17" s="56"/>
+      <c r="K17" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="M17" s="70" t="s">
+      <c r="M17" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="N17" s="70" t="s">
+      <c r="N17" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+      <c r="A18" s="52">
         <v>0</v>
       </c>
       <c r="B18" s="18">
@@ -1553,10 +1553,10 @@
       <c r="E18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="52">
         <v>0</v>
       </c>
       <c r="K18" s="18">
@@ -1571,12 +1571,12 @@
       <c r="N18" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="75" t="s">
+      <c r="O18" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="A19" s="52">
         <v>1</v>
       </c>
       <c r="B19" s="18">
@@ -1591,10 +1591,10 @@
       <c r="E19" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="52">
         <v>1</v>
       </c>
       <c r="K19" s="18">
@@ -1609,12 +1609,12 @@
       <c r="N19" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O19" s="75" t="s">
+      <c r="O19" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="72">
+      <c r="A20" s="52">
         <v>2</v>
       </c>
       <c r="B20" s="18">
@@ -1629,10 +1629,10 @@
       <c r="E20" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="52">
         <v>2</v>
       </c>
       <c r="K20" s="18">
@@ -1647,12 +1647,12 @@
       <c r="N20" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O20" s="75" t="s">
+      <c r="O20" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="72">
+      <c r="A21" s="52">
         <v>3</v>
       </c>
       <c r="B21" s="18">
@@ -1667,10 +1667,10 @@
       <c r="E21" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="52">
         <v>3</v>
       </c>
       <c r="K21" s="18">
@@ -1685,12 +1685,12 @@
       <c r="N21" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O21" s="75" t="s">
+      <c r="O21" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
+      <c r="A22" s="52">
         <v>4</v>
       </c>
       <c r="B22" s="18">
@@ -1705,10 +1705,10 @@
       <c r="E22" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="52">
         <v>4</v>
       </c>
       <c r="K22" s="18">
@@ -1723,12 +1723,12 @@
       <c r="N22" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O22" s="75" t="s">
+      <c r="O22" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+      <c r="A23" s="52">
         <v>5</v>
       </c>
       <c r="B23" s="18">
@@ -1743,10 +1743,10 @@
       <c r="E23" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="52">
         <v>5</v>
       </c>
       <c r="K23" s="18">
@@ -1761,12 +1761,12 @@
       <c r="N23" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O23" s="75" t="s">
+      <c r="O23" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="A24" s="52">
         <v>6</v>
       </c>
       <c r="B24" s="18">
@@ -1781,10 +1781,10 @@
       <c r="E24" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="52">
         <v>6</v>
       </c>
       <c r="K24" s="18">
@@ -1799,12 +1799,12 @@
       <c r="N24" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O24" s="75" t="s">
+      <c r="O24" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
+      <c r="A25" s="52">
         <v>7</v>
       </c>
       <c r="B25" s="18">
@@ -1819,10 +1819,10 @@
       <c r="E25" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="52">
         <v>7</v>
       </c>
       <c r="K25" s="18">
@@ -1837,12 +1837,12 @@
       <c r="N25" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O25" s="75" t="s">
+      <c r="O25" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
+      <c r="A26" s="52">
         <v>8</v>
       </c>
       <c r="B26" s="18">
@@ -1857,10 +1857,10 @@
       <c r="E26" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="52">
         <v>8</v>
       </c>
       <c r="K26" s="18">
@@ -1875,12 +1875,12 @@
       <c r="N26" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O26" s="75" t="s">
+      <c r="O26" s="55" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
+      <c r="A27" s="52">
         <v>9</v>
       </c>
       <c r="B27" s="18">
@@ -1895,10 +1895,10 @@
       <c r="E27" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="52">
         <v>9</v>
       </c>
       <c r="K27" s="18">
@@ -1913,12 +1913,12 @@
       <c r="N27" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O27" s="75" t="s">
+      <c r="O27" s="55" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="72">
+      <c r="A28" s="52">
         <v>10</v>
       </c>
       <c r="B28" s="18">
@@ -1933,10 +1933,10 @@
       <c r="E28" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="72">
+      <c r="J28" s="52">
         <v>10</v>
       </c>
       <c r="K28" s="18">
@@ -1951,12 +1951,12 @@
       <c r="N28" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O28" s="75" t="s">
+      <c r="O28" s="55" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
+      <c r="A29" s="52">
         <v>11</v>
       </c>
       <c r="B29" s="18">
@@ -1971,10 +1971,10 @@
       <c r="E29" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="72">
+      <c r="J29" s="52">
         <v>11</v>
       </c>
       <c r="K29" s="18">
@@ -1989,12 +1989,12 @@
       <c r="N29" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="75" t="s">
+      <c r="O29" s="55" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="72">
+      <c r="A30" s="52">
         <v>12</v>
       </c>
       <c r="B30" s="18">
@@ -2009,10 +2009,10 @@
       <c r="E30" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="52">
         <v>12</v>
       </c>
       <c r="K30" s="18">
@@ -2027,12 +2027,12 @@
       <c r="N30" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O30" s="75" t="s">
+      <c r="O30" s="55" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="72">
+      <c r="A31" s="52">
         <v>13</v>
       </c>
       <c r="B31" s="18">
@@ -2047,10 +2047,10 @@
       <c r="E31" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="52">
         <v>13</v>
       </c>
       <c r="K31" s="18">
@@ -2065,12 +2065,12 @@
       <c r="N31" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O31" s="75" t="s">
+      <c r="O31" s="55" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="72">
+      <c r="A32" s="52">
         <v>14</v>
       </c>
       <c r="B32" s="18">
@@ -2085,10 +2085,10 @@
       <c r="E32" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="52">
         <v>14</v>
       </c>
       <c r="K32" s="18">
@@ -2103,12 +2103,12 @@
       <c r="N32" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O32" s="75" t="s">
+      <c r="O32" s="55" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="72">
+      <c r="A33" s="52">
         <v>15</v>
       </c>
       <c r="B33" s="18">
@@ -2123,10 +2123,10 @@
       <c r="E33" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="72">
+      <c r="J33" s="52">
         <v>15</v>
       </c>
       <c r="K33" s="18">
@@ -2141,12 +2141,12 @@
       <c r="N33" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O33" s="75" t="s">
+      <c r="O33" s="55" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="72">
+      <c r="A34" s="52">
         <v>16</v>
       </c>
       <c r="B34" s="18">
@@ -2161,10 +2161,10 @@
       <c r="E34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="72">
+      <c r="J34" s="52">
         <v>16</v>
       </c>
       <c r="K34" s="18">
@@ -2179,12 +2179,12 @@
       <c r="N34" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O34" s="75" t="s">
+      <c r="O34" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="72">
+      <c r="A35" s="52">
         <v>17</v>
       </c>
       <c r="B35" s="18">
@@ -2199,10 +2199,10 @@
       <c r="E35" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="72">
+      <c r="J35" s="52">
         <v>17</v>
       </c>
       <c r="K35" s="18">
@@ -2217,12 +2217,12 @@
       <c r="N35" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O35" s="75" t="s">
+      <c r="O35" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="72">
+      <c r="A36" s="52">
         <v>18</v>
       </c>
       <c r="B36" s="18">
@@ -2237,10 +2237,10 @@
       <c r="E36" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="72">
+      <c r="J36" s="52">
         <v>18</v>
       </c>
       <c r="K36" s="18">
@@ -2255,12 +2255,12 @@
       <c r="N36" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O36" s="75" t="s">
+      <c r="O36" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="72">
+      <c r="A37" s="52">
         <v>19</v>
       </c>
       <c r="B37" s="18">
@@ -2275,10 +2275,10 @@
       <c r="E37" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="72">
+      <c r="J37" s="52">
         <v>19</v>
       </c>
       <c r="K37" s="18">
@@ -2293,12 +2293,12 @@
       <c r="N37" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O37" s="75" t="s">
+      <c r="O37" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="72">
+      <c r="A38" s="52">
         <v>20</v>
       </c>
       <c r="B38" s="18">
@@ -2313,10 +2313,10 @@
       <c r="E38" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="72">
+      <c r="J38" s="52">
         <v>20</v>
       </c>
       <c r="K38" s="18">
@@ -2331,12 +2331,12 @@
       <c r="N38" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O38" s="75" t="s">
+      <c r="O38" s="55" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="72">
+      <c r="A39" s="52">
         <v>21</v>
       </c>
       <c r="B39" s="18">
@@ -2351,10 +2351,10 @@
       <c r="E39" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="72">
+      <c r="J39" s="52">
         <v>21</v>
       </c>
       <c r="K39" s="18">
@@ -2369,12 +2369,12 @@
       <c r="N39" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O39" s="75" t="s">
+      <c r="O39" s="55" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="72">
+      <c r="A40" s="52">
         <v>22</v>
       </c>
       <c r="B40" s="18">
@@ -2389,10 +2389,10 @@
       <c r="E40" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="72">
+      <c r="J40" s="52">
         <v>22</v>
       </c>
       <c r="K40" s="18">
@@ -2407,12 +2407,12 @@
       <c r="N40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O40" s="75" t="s">
+      <c r="O40" s="55" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="72">
+      <c r="A41" s="52">
         <v>23</v>
       </c>
       <c r="B41" s="18">
@@ -2427,10 +2427,10 @@
       <c r="E41" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="72">
+      <c r="J41" s="52">
         <v>23</v>
       </c>
       <c r="K41" s="18">
@@ -2445,12 +2445,12 @@
       <c r="N41" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="75" t="s">
+      <c r="O41" s="55" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="72">
+      <c r="A42" s="52">
         <v>24</v>
       </c>
       <c r="B42" s="18">
@@ -2465,10 +2465,10 @@
       <c r="E42" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="75" t="s">
+      <c r="F42" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="72">
+      <c r="J42" s="52">
         <v>24</v>
       </c>
       <c r="K42" s="18">
@@ -2483,12 +2483,12 @@
       <c r="N42" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O42" s="75" t="s">
+      <c r="O42" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="72">
+      <c r="A43" s="52">
         <v>25</v>
       </c>
       <c r="B43" s="18">
@@ -2503,10 +2503,10 @@
       <c r="E43" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="72">
+      <c r="J43" s="52">
         <v>25</v>
       </c>
       <c r="K43" s="18">
@@ -2521,12 +2521,12 @@
       <c r="N43" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O43" s="75" t="s">
+      <c r="O43" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="72">
+      <c r="A44" s="52">
         <v>26</v>
       </c>
       <c r="B44" s="18">
@@ -2541,10 +2541,10 @@
       <c r="E44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="75" t="s">
+      <c r="F44" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="72">
+      <c r="J44" s="52">
         <v>26</v>
       </c>
       <c r="K44" s="18">
@@ -2559,12 +2559,12 @@
       <c r="N44" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O44" s="75" t="s">
+      <c r="O44" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="72">
+      <c r="A45" s="52">
         <v>27</v>
       </c>
       <c r="B45" s="18">
@@ -2579,10 +2579,10 @@
       <c r="E45" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="72">
+      <c r="J45" s="52">
         <v>27</v>
       </c>
       <c r="K45" s="18">
@@ -2597,12 +2597,12 @@
       <c r="N45" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O45" s="75" t="s">
+      <c r="O45" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="72">
+      <c r="A46" s="52">
         <v>28</v>
       </c>
       <c r="B46" s="18">
@@ -2617,10 +2617,10 @@
       <c r="E46" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="72">
+      <c r="J46" s="52">
         <v>28</v>
       </c>
       <c r="K46" s="18">
@@ -2635,12 +2635,12 @@
       <c r="N46" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O46" s="75" t="s">
+      <c r="O46" s="55" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="72">
+      <c r="A47" s="52">
         <v>29</v>
       </c>
       <c r="B47" s="18">
@@ -2655,10 +2655,10 @@
       <c r="E47" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="72">
+      <c r="J47" s="52">
         <v>29</v>
       </c>
       <c r="K47" s="18">
@@ -2673,12 +2673,12 @@
       <c r="N47" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O47" s="75" t="s">
+      <c r="O47" s="55" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="72">
+      <c r="A48" s="52">
         <v>30</v>
       </c>
       <c r="B48" s="18">
@@ -2693,10 +2693,10 @@
       <c r="E48" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="75" t="s">
+      <c r="F48" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="72">
+      <c r="J48" s="52">
         <v>30</v>
       </c>
       <c r="K48" s="18">
@@ -2711,12 +2711,12 @@
       <c r="N48" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O48" s="75" t="s">
+      <c r="O48" s="55" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="72">
+      <c r="A49" s="52">
         <v>31</v>
       </c>
       <c r="B49" s="18">
@@ -2731,10 +2731,10 @@
       <c r="E49" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="75" t="s">
+      <c r="F49" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J49" s="72">
+      <c r="J49" s="52">
         <v>31</v>
       </c>
       <c r="K49" s="18">
@@ -2749,12 +2749,12 @@
       <c r="N49" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O49" s="75" t="s">
+      <c r="O49" s="55" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="72">
+      <c r="A50" s="52">
         <v>32</v>
       </c>
       <c r="B50" s="18">
@@ -2769,10 +2769,10 @@
       <c r="E50" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J50" s="72">
+      <c r="J50" s="52">
         <v>32</v>
       </c>
       <c r="K50" s="18">
@@ -2787,12 +2787,12 @@
       <c r="N50" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O50" s="75" t="s">
+      <c r="O50" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="72">
+      <c r="A51" s="52">
         <v>33</v>
       </c>
       <c r="B51" s="18">
@@ -2807,10 +2807,10 @@
       <c r="E51" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="75" t="s">
+      <c r="F51" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="72">
+      <c r="J51" s="52">
         <v>33</v>
       </c>
       <c r="K51" s="18">
@@ -2825,12 +2825,12 @@
       <c r="N51" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O51" s="75" t="s">
+      <c r="O51" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="72">
+      <c r="A52" s="52">
         <v>34</v>
       </c>
       <c r="B52" s="18">
@@ -2845,10 +2845,10 @@
       <c r="E52" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="75" t="s">
+      <c r="F52" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="72">
+      <c r="J52" s="52">
         <v>34</v>
       </c>
       <c r="K52" s="18">
@@ -2863,12 +2863,12 @@
       <c r="N52" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O52" s="75" t="s">
+      <c r="O52" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="72">
+      <c r="A53" s="52">
         <v>35</v>
       </c>
       <c r="B53" s="18">
@@ -2883,10 +2883,10 @@
       <c r="E53" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="75" t="s">
+      <c r="F53" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="72">
+      <c r="J53" s="52">
         <v>35</v>
       </c>
       <c r="K53" s="18">
@@ -2901,12 +2901,12 @@
       <c r="N53" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O53" s="75" t="s">
+      <c r="O53" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="72">
+      <c r="A54" s="52">
         <v>36</v>
       </c>
       <c r="B54" s="18">
@@ -2921,10 +2921,10 @@
       <c r="E54" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="75" t="s">
+      <c r="F54" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="72">
+      <c r="J54" s="52">
         <v>36</v>
       </c>
       <c r="K54" s="18">
@@ -2939,12 +2939,12 @@
       <c r="N54" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O54" s="75" t="s">
+      <c r="O54" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="72">
+      <c r="A55" s="52">
         <v>37</v>
       </c>
       <c r="B55" s="18">
@@ -2959,10 +2959,10 @@
       <c r="E55" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="75" t="s">
+      <c r="F55" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="72">
+      <c r="J55" s="52">
         <v>37</v>
       </c>
       <c r="K55" s="18">
@@ -2977,12 +2977,12 @@
       <c r="N55" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O55" s="75" t="s">
+      <c r="O55" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="72">
+      <c r="A56" s="52">
         <v>38</v>
       </c>
       <c r="B56" s="18">
@@ -2997,10 +2997,10 @@
       <c r="E56" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="75" t="s">
+      <c r="F56" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="72">
+      <c r="J56" s="52">
         <v>38</v>
       </c>
       <c r="K56" s="18">
@@ -3015,12 +3015,12 @@
       <c r="N56" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O56" s="75" t="s">
+      <c r="O56" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="72">
+      <c r="A57" s="52">
         <v>39</v>
       </c>
       <c r="B57" s="18">
@@ -3035,10 +3035,10 @@
       <c r="E57" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="75" t="s">
+      <c r="F57" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="72">
+      <c r="J57" s="52">
         <v>39</v>
       </c>
       <c r="K57" s="18">
@@ -3053,12 +3053,12 @@
       <c r="N57" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O57" s="75" t="s">
+      <c r="O57" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="72">
+      <c r="A58" s="52">
         <v>40</v>
       </c>
       <c r="B58" s="18">
@@ -3073,10 +3073,10 @@
       <c r="E58" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="75" t="s">
+      <c r="F58" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="72">
+      <c r="J58" s="52">
         <v>40</v>
       </c>
       <c r="K58" s="18">
@@ -3091,12 +3091,12 @@
       <c r="N58" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O58" s="75" t="s">
+      <c r="O58" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="72">
+      <c r="A59" s="52">
         <v>41</v>
       </c>
       <c r="B59" s="18">
@@ -3111,10 +3111,10 @@
       <c r="E59" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="75" t="s">
+      <c r="F59" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="J59" s="72">
+      <c r="J59" s="52">
         <v>41</v>
       </c>
       <c r="K59" s="18">
@@ -3129,12 +3129,12 @@
       <c r="N59" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O59" s="75" t="s">
+      <c r="O59" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="72">
+      <c r="A60" s="52">
         <v>42</v>
       </c>
       <c r="B60" s="18">
@@ -3149,10 +3149,10 @@
       <c r="E60" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="75" t="s">
+      <c r="F60" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="J60" s="72">
+      <c r="J60" s="52">
         <v>42</v>
       </c>
       <c r="K60" s="18">
@@ -3167,12 +3167,12 @@
       <c r="N60" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O60" s="75" t="s">
+      <c r="O60" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="72">
+      <c r="A61" s="52">
         <v>43</v>
       </c>
       <c r="B61" s="18">
@@ -3187,10 +3187,10 @@
       <c r="E61" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F61" s="75" t="s">
+      <c r="F61" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="72">
+      <c r="J61" s="52">
         <v>43</v>
       </c>
       <c r="K61" s="18">
@@ -3205,12 +3205,12 @@
       <c r="N61" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O61" s="75" t="s">
+      <c r="O61" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="72">
+      <c r="A62" s="52">
         <v>44</v>
       </c>
       <c r="B62" s="18">
@@ -3225,10 +3225,10 @@
       <c r="E62" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F62" s="75" t="s">
+      <c r="F62" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="J62" s="72">
+      <c r="J62" s="52">
         <v>44</v>
       </c>
       <c r="K62" s="18">
@@ -3243,12 +3243,12 @@
       <c r="N62" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O62" s="75" t="s">
+      <c r="O62" s="55" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="72">
+      <c r="A63" s="52">
         <v>45</v>
       </c>
       <c r="B63" s="18">
@@ -3263,10 +3263,10 @@
       <c r="E63" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F63" s="75" t="s">
+      <c r="F63" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="J63" s="72">
+      <c r="J63" s="52">
         <v>45</v>
       </c>
       <c r="K63" s="18">
@@ -3281,12 +3281,12 @@
       <c r="N63" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O63" s="75" t="s">
+      <c r="O63" s="55" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="72">
+      <c r="A64" s="52">
         <v>46</v>
       </c>
       <c r="B64" s="18">
@@ -3301,10 +3301,10 @@
       <c r="E64" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F64" s="75" t="s">
+      <c r="F64" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J64" s="72">
+      <c r="J64" s="52">
         <v>46</v>
       </c>
       <c r="K64" s="18">
@@ -3319,12 +3319,12 @@
       <c r="N64" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O64" s="75" t="s">
+      <c r="O64" s="55" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="72">
+      <c r="A65" s="52">
         <v>47</v>
       </c>
       <c r="B65" s="18">
@@ -3339,10 +3339,10 @@
       <c r="E65" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F65" s="75" t="s">
+      <c r="F65" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J65" s="72">
+      <c r="J65" s="52">
         <v>47</v>
       </c>
       <c r="K65" s="18">
@@ -3357,12 +3357,12 @@
       <c r="N65" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O65" s="75" t="s">
+      <c r="O65" s="55" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="72">
+      <c r="A66" s="52">
         <v>48</v>
       </c>
       <c r="B66" s="18">
@@ -3377,10 +3377,10 @@
       <c r="E66" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F66" s="75" t="s">
+      <c r="F66" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J66" s="72">
+      <c r="J66" s="52">
         <v>48</v>
       </c>
       <c r="K66" s="18">
@@ -3395,12 +3395,12 @@
       <c r="N66" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O66" s="75" t="s">
+      <c r="O66" s="55" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="72">
+      <c r="A67" s="52">
         <v>49</v>
       </c>
       <c r="B67" s="18">
@@ -3415,10 +3415,10 @@
       <c r="E67" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F67" s="75" t="s">
+      <c r="F67" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="72">
+      <c r="J67" s="52">
         <v>49</v>
       </c>
       <c r="K67" s="18">
@@ -3433,12 +3433,12 @@
       <c r="N67" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O67" s="75" t="s">
+      <c r="O67" s="55" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="72">
+      <c r="A68" s="52">
         <v>50</v>
       </c>
       <c r="B68" s="18">
@@ -3453,10 +3453,10 @@
       <c r="E68" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F68" s="75" t="s">
+      <c r="F68" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J68" s="72">
+      <c r="J68" s="52">
         <v>50</v>
       </c>
       <c r="K68" s="18">
@@ -3471,12 +3471,12 @@
       <c r="N68" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O68" s="75" t="s">
+      <c r="O68" s="55" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="72">
+      <c r="A69" s="52">
         <v>51</v>
       </c>
       <c r="B69" s="18">
@@ -3491,10 +3491,10 @@
       <c r="E69" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="75" t="s">
+      <c r="F69" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J69" s="72">
+      <c r="J69" s="52">
         <v>51</v>
       </c>
       <c r="K69" s="18">
@@ -3509,12 +3509,12 @@
       <c r="N69" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O69" s="75" t="s">
+      <c r="O69" s="55" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="72">
+      <c r="A70" s="52">
         <v>52</v>
       </c>
       <c r="B70" s="18">
@@ -3529,10 +3529,10 @@
       <c r="E70" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="75" t="s">
+      <c r="F70" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="J70" s="72">
+      <c r="J70" s="52">
         <v>52</v>
       </c>
       <c r="K70" s="18">
@@ -3547,12 +3547,12 @@
       <c r="N70" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O70" s="75" t="s">
+      <c r="O70" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="72">
+      <c r="A71" s="52">
         <v>53</v>
       </c>
       <c r="B71" s="18">
@@ -3567,10 +3567,10 @@
       <c r="E71" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="75" t="s">
+      <c r="F71" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="J71" s="72">
+      <c r="J71" s="52">
         <v>53</v>
       </c>
       <c r="K71" s="18">
@@ -3585,12 +3585,12 @@
       <c r="N71" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O71" s="75" t="s">
+      <c r="O71" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="72">
+      <c r="A72" s="52">
         <v>54</v>
       </c>
       <c r="B72" s="18">
@@ -3605,10 +3605,10 @@
       <c r="E72" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F72" s="75" t="s">
+      <c r="F72" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="J72" s="72">
+      <c r="J72" s="52">
         <v>54</v>
       </c>
       <c r="K72" s="18">
@@ -3623,12 +3623,12 @@
       <c r="N72" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O72" s="75" t="s">
+      <c r="O72" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="72">
+      <c r="A73" s="52">
         <v>55</v>
       </c>
       <c r="B73" s="18">
@@ -3643,10 +3643,10 @@
       <c r="E73" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="75" t="s">
+      <c r="F73" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="J73" s="72">
+      <c r="J73" s="52">
         <v>55</v>
       </c>
       <c r="K73" s="18">
@@ -3661,12 +3661,12 @@
       <c r="N73" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O73" s="75" t="s">
+      <c r="O73" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="72">
+      <c r="A74" s="52">
         <v>56</v>
       </c>
       <c r="B74" s="18">
@@ -3681,10 +3681,10 @@
       <c r="E74" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F74" s="75" t="s">
+      <c r="F74" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="J74" s="72">
+      <c r="J74" s="52">
         <v>56</v>
       </c>
       <c r="K74" s="18">
@@ -3699,12 +3699,12 @@
       <c r="N74" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O74" s="75" t="s">
+      <c r="O74" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="72">
+      <c r="A75" s="52">
         <v>57</v>
       </c>
       <c r="B75" s="18">
@@ -3719,10 +3719,10 @@
       <c r="E75" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F75" s="75" t="s">
+      <c r="F75" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="J75" s="72">
+      <c r="J75" s="52">
         <v>57</v>
       </c>
       <c r="K75" s="18">
@@ -3737,12 +3737,12 @@
       <c r="N75" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O75" s="75" t="s">
+      <c r="O75" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="72">
+      <c r="A76" s="52">
         <v>58</v>
       </c>
       <c r="B76" s="18">
@@ -3757,10 +3757,10 @@
       <c r="E76" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="75" t="s">
+      <c r="F76" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="J76" s="72">
+      <c r="J76" s="52">
         <v>58</v>
       </c>
       <c r="K76" s="18">
@@ -3775,12 +3775,12 @@
       <c r="N76" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O76" s="75" t="s">
+      <c r="O76" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="72">
+      <c r="A77" s="52">
         <v>59</v>
       </c>
       <c r="B77" s="18">
@@ -3795,10 +3795,10 @@
       <c r="E77" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F77" s="75" t="s">
+      <c r="F77" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="J77" s="72">
+      <c r="J77" s="52">
         <v>59</v>
       </c>
       <c r="K77" s="18">
@@ -3813,12 +3813,12 @@
       <c r="N77" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O77" s="75" t="s">
+      <c r="O77" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="72">
+      <c r="A78" s="52">
         <v>60</v>
       </c>
       <c r="B78" s="18">
@@ -3833,10 +3833,10 @@
       <c r="E78" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F78" s="75" t="s">
+      <c r="F78" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="J78" s="72">
+      <c r="J78" s="52">
         <v>60</v>
       </c>
       <c r="K78" s="18">
@@ -3851,12 +3851,12 @@
       <c r="N78" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O78" s="75" t="s">
+      <c r="O78" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="72">
+      <c r="A79" s="52">
         <v>61</v>
       </c>
       <c r="B79" s="18">
@@ -3871,10 +3871,10 @@
       <c r="E79" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F79" s="75" t="s">
+      <c r="F79" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="J79" s="72">
+      <c r="J79" s="52">
         <v>61</v>
       </c>
       <c r="K79" s="18">
@@ -3889,12 +3889,12 @@
       <c r="N79" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O79" s="75" t="s">
+      <c r="O79" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="72">
+      <c r="A80" s="52">
         <v>62</v>
       </c>
       <c r="B80" s="18">
@@ -3909,10 +3909,10 @@
       <c r="E80" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F80" s="75" t="s">
+      <c r="F80" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="J80" s="72">
+      <c r="J80" s="52">
         <v>62</v>
       </c>
       <c r="K80" s="18">
@@ -3927,12 +3927,12 @@
       <c r="N80" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O80" s="75" t="s">
+      <c r="O80" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="72">
+      <c r="A81" s="52">
         <v>63</v>
       </c>
       <c r="B81" s="18">
@@ -3947,10 +3947,10 @@
       <c r="E81" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F81" s="75" t="s">
+      <c r="F81" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="J81" s="72">
+      <c r="J81" s="52">
         <v>63</v>
       </c>
       <c r="K81" s="18">
@@ -3965,12 +3965,12 @@
       <c r="N81" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O81" s="75" t="s">
+      <c r="O81" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="72">
+      <c r="A82" s="52">
         <v>64</v>
       </c>
       <c r="B82" s="18">
@@ -3985,10 +3985,10 @@
       <c r="E82" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F82" s="75" t="s">
+      <c r="F82" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="J82" s="72">
+      <c r="J82" s="52">
         <v>64</v>
       </c>
       <c r="K82" s="18">
@@ -4003,12 +4003,12 @@
       <c r="N82" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O82" s="75" t="s">
+      <c r="O82" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="72">
+      <c r="A83" s="52">
         <v>65</v>
       </c>
       <c r="B83" s="18">
@@ -4023,10 +4023,10 @@
       <c r="E83" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F83" s="75" t="s">
+      <c r="F83" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="J83" s="72">
+      <c r="J83" s="52">
         <v>65</v>
       </c>
       <c r="K83" s="18">
@@ -4041,12 +4041,12 @@
       <c r="N83" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O83" s="75" t="s">
+      <c r="O83" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="72">
+      <c r="A84" s="52">
         <v>66</v>
       </c>
       <c r="B84" s="18">
@@ -4061,10 +4061,10 @@
       <c r="E84" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F84" s="75" t="s">
+      <c r="F84" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="J84" s="72">
+      <c r="J84" s="52">
         <v>66</v>
       </c>
       <c r="K84" s="18">
@@ -4079,12 +4079,12 @@
       <c r="N84" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O84" s="75" t="s">
+      <c r="O84" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="72">
+      <c r="A85" s="52">
         <v>67</v>
       </c>
       <c r="B85" s="18">
@@ -4099,10 +4099,10 @@
       <c r="E85" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F85" s="75" t="s">
+      <c r="F85" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="J85" s="72">
+      <c r="J85" s="52">
         <v>67</v>
       </c>
       <c r="K85" s="18">
@@ -4117,12 +4117,12 @@
       <c r="N85" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O85" s="75" t="s">
+      <c r="O85" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="72">
+      <c r="A86" s="52">
         <v>68</v>
       </c>
       <c r="B86" s="18">
@@ -4137,10 +4137,10 @@
       <c r="E86" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F86" s="75" t="s">
+      <c r="F86" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="J86" s="72">
+      <c r="J86" s="52">
         <v>68</v>
       </c>
       <c r="K86" s="18">
@@ -4155,12 +4155,12 @@
       <c r="N86" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O86" s="75" t="s">
+      <c r="O86" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="72">
+      <c r="A87" s="52">
         <v>69</v>
       </c>
       <c r="B87" s="18">
@@ -4175,10 +4175,10 @@
       <c r="E87" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F87" s="75" t="s">
+      <c r="F87" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="J87" s="72">
+      <c r="J87" s="52">
         <v>69</v>
       </c>
       <c r="K87" s="18">
@@ -4193,12 +4193,12 @@
       <c r="N87" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O87" s="75" t="s">
+      <c r="O87" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="72">
+      <c r="A88" s="52">
         <v>70</v>
       </c>
       <c r="B88" s="18">
@@ -4213,10 +4213,10 @@
       <c r="E88" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F88" s="75" t="s">
+      <c r="F88" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J88" s="72">
+      <c r="J88" s="52">
         <v>70</v>
       </c>
       <c r="K88" s="18">
@@ -4231,12 +4231,12 @@
       <c r="N88" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O88" s="75" t="s">
+      <c r="O88" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="72">
+      <c r="A89" s="52">
         <v>71</v>
       </c>
       <c r="B89" s="18">
@@ -4251,10 +4251,10 @@
       <c r="E89" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="75" t="s">
+      <c r="F89" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J89" s="72">
+      <c r="J89" s="52">
         <v>71</v>
       </c>
       <c r="K89" s="18">
@@ -4269,12 +4269,12 @@
       <c r="N89" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O89" s="75" t="s">
+      <c r="O89" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="72">
+      <c r="A90" s="52">
         <v>72</v>
       </c>
       <c r="B90" s="18">
@@ -4289,10 +4289,10 @@
       <c r="E90" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F90" s="75" t="s">
+      <c r="F90" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J90" s="72">
+      <c r="J90" s="52">
         <v>72</v>
       </c>
       <c r="K90" s="18">
@@ -4307,12 +4307,12 @@
       <c r="N90" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O90" s="75" t="s">
+      <c r="O90" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="72">
+      <c r="A91" s="52">
         <v>73</v>
       </c>
       <c r="B91" s="18">
@@ -4327,10 +4327,10 @@
       <c r="E91" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F91" s="75" t="s">
+      <c r="F91" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J91" s="72">
+      <c r="J91" s="52">
         <v>73</v>
       </c>
       <c r="K91" s="18">
@@ -4345,12 +4345,12 @@
       <c r="N91" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O91" s="75" t="s">
+      <c r="O91" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="72">
+      <c r="A92" s="52">
         <v>74</v>
       </c>
       <c r="B92" s="18">
@@ -4365,10 +4365,10 @@
       <c r="E92" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F92" s="75" t="s">
+      <c r="F92" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J92" s="72">
+      <c r="J92" s="52">
         <v>74</v>
       </c>
       <c r="K92" s="18">
@@ -4383,12 +4383,12 @@
       <c r="N92" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O92" s="75" t="s">
+      <c r="O92" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="72">
+      <c r="A93" s="52">
         <v>75</v>
       </c>
       <c r="B93" s="18">
@@ -4403,10 +4403,10 @@
       <c r="E93" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F93" s="75" t="s">
+      <c r="F93" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J93" s="72">
+      <c r="J93" s="52">
         <v>75</v>
       </c>
       <c r="K93" s="18">
@@ -4421,12 +4421,12 @@
       <c r="N93" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O93" s="75" t="s">
+      <c r="O93" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="72">
+      <c r="A94" s="52">
         <v>76</v>
       </c>
       <c r="B94" s="18">
@@ -4441,10 +4441,10 @@
       <c r="E94" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F94" s="75" t="s">
+      <c r="F94" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J94" s="72">
+      <c r="J94" s="52">
         <v>76</v>
       </c>
       <c r="K94" s="18">
@@ -4459,12 +4459,12 @@
       <c r="N94" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O94" s="75" t="s">
+      <c r="O94" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="72">
+      <c r="A95" s="52">
         <v>77</v>
       </c>
       <c r="B95" s="18">
@@ -4479,10 +4479,10 @@
       <c r="E95" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F95" s="75" t="s">
+      <c r="F95" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J95" s="72">
+      <c r="J95" s="52">
         <v>77</v>
       </c>
       <c r="K95" s="18">
@@ -4497,12 +4497,12 @@
       <c r="N95" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O95" s="75" t="s">
+      <c r="O95" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="72">
+      <c r="A96" s="52">
         <v>78</v>
       </c>
       <c r="B96" s="18">
@@ -4517,10 +4517,10 @@
       <c r="E96" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F96" s="75" t="s">
+      <c r="F96" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J96" s="72">
+      <c r="J96" s="52">
         <v>78</v>
       </c>
       <c r="K96" s="18">
@@ -4535,12 +4535,12 @@
       <c r="N96" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O96" s="75" t="s">
+      <c r="O96" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="72">
+      <c r="A97" s="52">
         <v>79</v>
       </c>
       <c r="B97" s="18">
@@ -4555,10 +4555,10 @@
       <c r="E97" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F97" s="75" t="s">
+      <c r="F97" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J97" s="72">
+      <c r="J97" s="52">
         <v>79</v>
       </c>
       <c r="K97" s="18">
@@ -4573,12 +4573,12 @@
       <c r="N97" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O97" s="75" t="s">
+      <c r="O97" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="72">
+      <c r="A98" s="52">
         <v>80</v>
       </c>
       <c r="B98" s="18">
@@ -4593,10 +4593,10 @@
       <c r="E98" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F98" s="75" t="s">
+      <c r="F98" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J98" s="72">
+      <c r="J98" s="52">
         <v>80</v>
       </c>
       <c r="K98" s="18">
@@ -4611,12 +4611,12 @@
       <c r="N98" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O98" s="75" t="s">
+      <c r="O98" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="72">
+      <c r="A99" s="52">
         <v>81</v>
       </c>
       <c r="B99" s="18">
@@ -4631,10 +4631,10 @@
       <c r="E99" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F99" s="75" t="s">
+      <c r="F99" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J99" s="72">
+      <c r="J99" s="52">
         <v>81</v>
       </c>
       <c r="K99" s="18">
@@ -4649,12 +4649,12 @@
       <c r="N99" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O99" s="75" t="s">
+      <c r="O99" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="72">
+      <c r="A100" s="52">
         <v>82</v>
       </c>
       <c r="B100" s="18">
@@ -4669,10 +4669,10 @@
       <c r="E100" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F100" s="75" t="s">
+      <c r="F100" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J100" s="72">
+      <c r="J100" s="52">
         <v>82</v>
       </c>
       <c r="K100" s="18">
@@ -4687,12 +4687,12 @@
       <c r="N100" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O100" s="75" t="s">
+      <c r="O100" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="72">
+      <c r="A101" s="52">
         <v>83</v>
       </c>
       <c r="B101" s="18">
@@ -4707,10 +4707,10 @@
       <c r="E101" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F101" s="75" t="s">
+      <c r="F101" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J101" s="72">
+      <c r="J101" s="52">
         <v>83</v>
       </c>
       <c r="K101" s="18">
@@ -4725,12 +4725,12 @@
       <c r="N101" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O101" s="75" t="s">
+      <c r="O101" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="72">
+      <c r="A102" s="52">
         <v>84</v>
       </c>
       <c r="B102" s="18">
@@ -4745,10 +4745,10 @@
       <c r="E102" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F102" s="75" t="s">
+      <c r="F102" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="J102" s="72">
+      <c r="J102" s="52">
         <v>84</v>
       </c>
       <c r="K102" s="18">
@@ -4763,12 +4763,12 @@
       <c r="N102" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O102" s="75" t="s">
+      <c r="O102" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="72">
+      <c r="A103" s="52">
         <v>85</v>
       </c>
       <c r="B103" s="18">
@@ -4783,10 +4783,10 @@
       <c r="E103" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F103" s="75" t="s">
+      <c r="F103" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="J103" s="72">
+      <c r="J103" s="52">
         <v>85</v>
       </c>
       <c r="K103" s="18">
@@ -4801,12 +4801,12 @@
       <c r="N103" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O103" s="75" t="s">
+      <c r="O103" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="72">
+      <c r="A104" s="52">
         <v>86</v>
       </c>
       <c r="B104" s="18">
@@ -4821,10 +4821,10 @@
       <c r="E104" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F104" s="75" t="s">
+      <c r="F104" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J104" s="72">
+      <c r="J104" s="52">
         <v>86</v>
       </c>
       <c r="K104" s="18">
@@ -4839,12 +4839,12 @@
       <c r="N104" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O104" s="75" t="s">
+      <c r="O104" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="72">
+      <c r="A105" s="52">
         <v>87</v>
       </c>
       <c r="B105" s="18">
@@ -4859,10 +4859,10 @@
       <c r="E105" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F105" s="75" t="s">
+      <c r="F105" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J105" s="72">
+      <c r="J105" s="52">
         <v>87</v>
       </c>
       <c r="K105" s="18">
@@ -4877,12 +4877,12 @@
       <c r="N105" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O105" s="75" t="s">
+      <c r="O105" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="72">
+      <c r="A106" s="52">
         <v>88</v>
       </c>
       <c r="B106" s="18">
@@ -4897,10 +4897,10 @@
       <c r="E106" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F106" s="75" t="s">
+      <c r="F106" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J106" s="72">
+      <c r="J106" s="52">
         <v>88</v>
       </c>
       <c r="K106" s="18">
@@ -4915,12 +4915,12 @@
       <c r="N106" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O106" s="75" t="s">
+      <c r="O106" s="55" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="72">
+      <c r="A107" s="52">
         <v>89</v>
       </c>
       <c r="B107" s="18">
@@ -4935,10 +4935,10 @@
       <c r="E107" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F107" s="75" t="s">
+      <c r="F107" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J107" s="72">
+      <c r="J107" s="52">
         <v>89</v>
       </c>
       <c r="K107" s="18">
@@ -4953,12 +4953,12 @@
       <c r="N107" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="75" t="s">
+      <c r="O107" s="55" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="72">
+      <c r="A108" s="52">
         <v>90</v>
       </c>
       <c r="B108" s="18">
@@ -4973,10 +4973,10 @@
       <c r="E108" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F108" s="75" t="s">
+      <c r="F108" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J108" s="72">
+      <c r="J108" s="52">
         <v>90</v>
       </c>
       <c r="K108" s="18">
@@ -4991,12 +4991,12 @@
       <c r="N108" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O108" s="75" t="s">
+      <c r="O108" s="55" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="72">
+      <c r="A109" s="52">
         <v>91</v>
       </c>
       <c r="B109" s="18">
@@ -5011,10 +5011,10 @@
       <c r="E109" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F109" s="75" t="s">
+      <c r="F109" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J109" s="72">
+      <c r="J109" s="52">
         <v>91</v>
       </c>
       <c r="K109" s="18">
@@ -5029,12 +5029,12 @@
       <c r="N109" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O109" s="75" t="s">
+      <c r="O109" s="55" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="72">
+      <c r="A110" s="52">
         <v>92</v>
       </c>
       <c r="B110" s="18">
@@ -5049,10 +5049,10 @@
       <c r="E110" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F110" s="75" t="s">
+      <c r="F110" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J110" s="72">
+      <c r="J110" s="52">
         <v>92</v>
       </c>
       <c r="K110" s="18">
@@ -5067,12 +5067,12 @@
       <c r="N110" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O110" s="75" t="s">
+      <c r="O110" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="72">
+      <c r="A111" s="52">
         <v>93</v>
       </c>
       <c r="B111" s="18">
@@ -5087,10 +5087,10 @@
       <c r="E111" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F111" s="75" t="s">
+      <c r="F111" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J111" s="72">
+      <c r="J111" s="52">
         <v>93</v>
       </c>
       <c r="K111" s="18">
@@ -5105,12 +5105,12 @@
       <c r="N111" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O111" s="75" t="s">
+      <c r="O111" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="72">
+      <c r="A112" s="52">
         <v>94</v>
       </c>
       <c r="B112" s="18">
@@ -5125,10 +5125,10 @@
       <c r="E112" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F112" s="75" t="s">
+      <c r="F112" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J112" s="72">
+      <c r="J112" s="52">
         <v>94</v>
       </c>
       <c r="K112" s="18">
@@ -5143,12 +5143,12 @@
       <c r="N112" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O112" s="75" t="s">
+      <c r="O112" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="72">
+      <c r="A113" s="52">
         <v>95</v>
       </c>
       <c r="B113" s="18">
@@ -5163,10 +5163,10 @@
       <c r="E113" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F113" s="75" t="s">
+      <c r="F113" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J113" s="72">
+      <c r="J113" s="52">
         <v>95</v>
       </c>
       <c r="K113" s="18">
@@ -5181,12 +5181,12 @@
       <c r="N113" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O113" s="75" t="s">
+      <c r="O113" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="72">
+      <c r="A114" s="52">
         <v>96</v>
       </c>
       <c r="B114" s="18">
@@ -5201,10 +5201,10 @@
       <c r="E114" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F114" s="75" t="s">
+      <c r="F114" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J114" s="72">
+      <c r="J114" s="52">
         <v>96</v>
       </c>
       <c r="K114" s="18">
@@ -5219,12 +5219,12 @@
       <c r="N114" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O114" s="75" t="s">
+      <c r="O114" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="72">
+      <c r="A115" s="52">
         <v>97</v>
       </c>
       <c r="B115" s="18">
@@ -5239,10 +5239,10 @@
       <c r="E115" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F115" s="75" t="s">
+      <c r="F115" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J115" s="72">
+      <c r="J115" s="52">
         <v>97</v>
       </c>
       <c r="K115" s="18">
@@ -5257,12 +5257,12 @@
       <c r="N115" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O115" s="75" t="s">
+      <c r="O115" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="72">
+      <c r="A116" s="52">
         <v>98</v>
       </c>
       <c r="B116" s="18">
@@ -5277,10 +5277,10 @@
       <c r="E116" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F116" s="75" t="s">
+      <c r="F116" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="J116" s="72">
+      <c r="J116" s="52">
         <v>98</v>
       </c>
       <c r="K116" s="18">
@@ -5295,12 +5295,12 @@
       <c r="N116" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O116" s="75" t="s">
+      <c r="O116" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="72">
+      <c r="A117" s="52">
         <v>99</v>
       </c>
       <c r="B117" s="18">
@@ -5315,10 +5315,10 @@
       <c r="E117" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F117" s="75" t="s">
+      <c r="F117" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="J117" s="72">
+      <c r="J117" s="52">
         <v>99</v>
       </c>
       <c r="K117" s="18">
@@ -5333,12 +5333,12 @@
       <c r="N117" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O117" s="75" t="s">
+      <c r="O117" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="72">
+      <c r="A118" s="52">
         <v>100</v>
       </c>
       <c r="B118" s="18">
@@ -5353,10 +5353,10 @@
       <c r="E118" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F118" s="75" t="s">
+      <c r="F118" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="J118" s="72">
+      <c r="J118" s="52">
         <v>100</v>
       </c>
       <c r="K118" s="18">
@@ -5371,12 +5371,12 @@
       <c r="N118" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O118" s="75" t="s">
+      <c r="O118" s="55" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="72">
+      <c r="A119" s="52">
         <v>101</v>
       </c>
       <c r="B119" s="18">
@@ -5391,10 +5391,10 @@
       <c r="E119" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F119" s="75" t="s">
+      <c r="F119" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J119" s="72">
+      <c r="J119" s="52">
         <v>101</v>
       </c>
       <c r="K119" s="18">
@@ -5409,12 +5409,12 @@
       <c r="N119" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O119" s="75" t="s">
+      <c r="O119" s="55" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="72">
+      <c r="A120" s="52">
         <v>102</v>
       </c>
       <c r="B120" s="18">
@@ -5429,10 +5429,10 @@
       <c r="E120" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F120" s="75" t="s">
+      <c r="F120" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J120" s="72">
+      <c r="J120" s="52">
         <v>102</v>
       </c>
       <c r="K120" s="18">
@@ -5447,12 +5447,12 @@
       <c r="N120" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O120" s="75" t="s">
+      <c r="O120" s="55" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="72">
+      <c r="A121" s="52">
         <v>103</v>
       </c>
       <c r="B121" s="18">
@@ -5467,10 +5467,10 @@
       <c r="E121" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F121" s="75" t="s">
+      <c r="F121" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J121" s="72">
+      <c r="J121" s="52">
         <v>103</v>
       </c>
       <c r="K121" s="18">
@@ -5485,12 +5485,12 @@
       <c r="N121" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O121" s="75" t="s">
+      <c r="O121" s="55" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="72">
+      <c r="A122" s="52">
         <v>104</v>
       </c>
       <c r="B122" s="18">
@@ -5505,10 +5505,10 @@
       <c r="E122" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F122" s="75" t="s">
+      <c r="F122" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J122" s="72">
+      <c r="J122" s="52">
         <v>104</v>
       </c>
       <c r="K122" s="18">
@@ -5523,12 +5523,12 @@
       <c r="N122" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O122" s="75" t="s">
+      <c r="O122" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="72">
+      <c r="A123" s="52">
         <v>105</v>
       </c>
       <c r="B123" s="18">
@@ -5543,10 +5543,10 @@
       <c r="E123" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F123" s="75" t="s">
+      <c r="F123" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J123" s="72">
+      <c r="J123" s="52">
         <v>105</v>
       </c>
       <c r="K123" s="18">
@@ -5561,12 +5561,12 @@
       <c r="N123" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O123" s="75" t="s">
+      <c r="O123" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="72">
+      <c r="A124" s="52">
         <v>106</v>
       </c>
       <c r="B124" s="18">
@@ -5581,10 +5581,10 @@
       <c r="E124" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F124" s="75" t="s">
+      <c r="F124" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J124" s="72">
+      <c r="J124" s="52">
         <v>106</v>
       </c>
       <c r="K124" s="18">
@@ -5599,12 +5599,12 @@
       <c r="N124" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O124" s="75" t="s">
+      <c r="O124" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="72">
+      <c r="A125" s="52">
         <v>107</v>
       </c>
       <c r="B125" s="18">
@@ -5619,10 +5619,10 @@
       <c r="E125" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F125" s="75" t="s">
+      <c r="F125" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J125" s="72">
+      <c r="J125" s="52">
         <v>107</v>
       </c>
       <c r="K125" s="18">
@@ -5637,12 +5637,12 @@
       <c r="N125" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O125" s="75" t="s">
+      <c r="O125" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="72">
+      <c r="A126" s="52">
         <v>108</v>
       </c>
       <c r="B126" s="18">
@@ -5657,10 +5657,10 @@
       <c r="E126" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F126" s="75" t="s">
+      <c r="F126" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J126" s="72">
+      <c r="J126" s="52">
         <v>108</v>
       </c>
       <c r="K126" s="18">
@@ -5675,12 +5675,12 @@
       <c r="N126" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O126" s="75" t="s">
+      <c r="O126" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" s="72">
+      <c r="A127" s="52">
         <v>109</v>
       </c>
       <c r="B127" s="18">
@@ -5695,10 +5695,10 @@
       <c r="E127" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F127" s="75" t="s">
+      <c r="F127" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J127" s="72">
+      <c r="J127" s="52">
         <v>109</v>
       </c>
       <c r="K127" s="18">
@@ -5713,12 +5713,12 @@
       <c r="N127" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O127" s="75" t="s">
+      <c r="O127" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" s="72">
+      <c r="A128" s="52">
         <v>110</v>
       </c>
       <c r="B128" s="18">
@@ -5733,10 +5733,10 @@
       <c r="E128" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F128" s="75" t="s">
+      <c r="F128" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J128" s="72">
+      <c r="J128" s="52">
         <v>110</v>
       </c>
       <c r="K128" s="18">
@@ -5751,12 +5751,12 @@
       <c r="N128" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O128" s="75" t="s">
+      <c r="O128" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="72">
+      <c r="A129" s="52">
         <v>111</v>
       </c>
       <c r="B129" s="18">
@@ -5771,10 +5771,10 @@
       <c r="E129" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F129" s="75" t="s">
+      <c r="F129" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J129" s="72">
+      <c r="J129" s="52">
         <v>111</v>
       </c>
       <c r="K129" s="18">
@@ -5789,12 +5789,12 @@
       <c r="N129" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O129" s="75" t="s">
+      <c r="O129" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="72">
+      <c r="A130" s="52">
         <v>112</v>
       </c>
       <c r="B130" s="18">
@@ -5809,10 +5809,10 @@
       <c r="E130" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F130" s="75" t="s">
+      <c r="F130" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J130" s="72">
+      <c r="J130" s="52">
         <v>112</v>
       </c>
       <c r="K130" s="18">
@@ -5827,12 +5827,12 @@
       <c r="N130" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O130" s="75" t="s">
+      <c r="O130" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="72">
+      <c r="A131" s="52">
         <v>113</v>
       </c>
       <c r="B131" s="18">
@@ -5847,10 +5847,10 @@
       <c r="E131" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F131" s="75" t="s">
+      <c r="F131" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J131" s="72">
+      <c r="J131" s="52">
         <v>113</v>
       </c>
       <c r="K131" s="18">
@@ -5865,12 +5865,12 @@
       <c r="N131" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O131" s="75" t="s">
+      <c r="O131" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="72">
+      <c r="A132" s="52">
         <v>114</v>
       </c>
       <c r="B132" s="18">
@@ -5885,10 +5885,10 @@
       <c r="E132" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F132" s="75" t="s">
+      <c r="F132" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J132" s="72">
+      <c r="J132" s="52">
         <v>114</v>
       </c>
       <c r="K132" s="18">
@@ -5903,12 +5903,12 @@
       <c r="N132" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O132" s="75" t="s">
+      <c r="O132" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="72">
+      <c r="A133" s="52">
         <v>115</v>
       </c>
       <c r="B133" s="18">
@@ -5923,10 +5923,10 @@
       <c r="E133" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F133" s="75" t="s">
+      <c r="F133" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J133" s="72">
+      <c r="J133" s="52">
         <v>115</v>
       </c>
       <c r="K133" s="18">
@@ -5941,12 +5941,12 @@
       <c r="N133" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O133" s="75" t="s">
+      <c r="O133" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="72">
+      <c r="A134" s="52">
         <v>116</v>
       </c>
       <c r="B134" s="18">
@@ -5961,10 +5961,10 @@
       <c r="E134" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F134" s="75" t="s">
+      <c r="F134" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J134" s="72">
+      <c r="J134" s="52">
         <v>116</v>
       </c>
       <c r="K134" s="18">
@@ -5979,12 +5979,12 @@
       <c r="N134" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O134" s="75" t="s">
+      <c r="O134" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="72">
+      <c r="A135" s="52">
         <v>117</v>
       </c>
       <c r="B135" s="18">
@@ -5999,10 +5999,10 @@
       <c r="E135" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F135" s="75" t="s">
+      <c r="F135" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J135" s="72">
+      <c r="J135" s="52">
         <v>117</v>
       </c>
       <c r="K135" s="18">
@@ -6017,12 +6017,12 @@
       <c r="N135" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O135" s="75" t="s">
+      <c r="O135" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="72">
+      <c r="A136" s="52">
         <v>118</v>
       </c>
       <c r="B136" s="18">
@@ -6037,10 +6037,10 @@
       <c r="E136" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F136" s="75" t="s">
+      <c r="F136" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J136" s="72">
+      <c r="J136" s="52">
         <v>118</v>
       </c>
       <c r="K136" s="18">
@@ -6055,12 +6055,12 @@
       <c r="N136" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O136" s="75" t="s">
+      <c r="O136" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="72">
+      <c r="A137" s="52">
         <v>119</v>
       </c>
       <c r="B137" s="18">
@@ -6075,10 +6075,10 @@
       <c r="E137" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F137" s="75" t="s">
+      <c r="F137" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J137" s="72">
+      <c r="J137" s="52">
         <v>119</v>
       </c>
       <c r="K137" s="18">
@@ -6093,12 +6093,12 @@
       <c r="N137" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O137" s="75" t="s">
+      <c r="O137" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" s="72">
+      <c r="A138" s="52">
         <v>120</v>
       </c>
       <c r="B138" s="18">
@@ -6113,10 +6113,10 @@
       <c r="E138" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F138" s="75" t="s">
+      <c r="F138" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J138" s="72">
+      <c r="J138" s="52">
         <v>120</v>
       </c>
       <c r="K138" s="18">
@@ -6131,12 +6131,12 @@
       <c r="N138" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O138" s="75" t="s">
+      <c r="O138" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="72">
+      <c r="A139" s="52">
         <v>121</v>
       </c>
       <c r="B139" s="18">
@@ -6151,10 +6151,10 @@
       <c r="E139" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F139" s="75" t="s">
+      <c r="F139" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J139" s="72">
+      <c r="J139" s="52">
         <v>121</v>
       </c>
       <c r="K139" s="18">
@@ -6169,12 +6169,12 @@
       <c r="N139" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O139" s="75" t="s">
+      <c r="O139" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="72">
+      <c r="A140" s="52">
         <v>122</v>
       </c>
       <c r="B140" s="18">
@@ -6189,10 +6189,10 @@
       <c r="E140" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F140" s="75" t="s">
+      <c r="F140" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J140" s="72">
+      <c r="J140" s="52">
         <v>122</v>
       </c>
       <c r="K140" s="18">
@@ -6207,12 +6207,12 @@
       <c r="N140" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O140" s="75" t="s">
+      <c r="O140" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="72">
+      <c r="A141" s="52">
         <v>123</v>
       </c>
       <c r="B141" s="18">
@@ -6227,10 +6227,10 @@
       <c r="E141" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F141" s="75" t="s">
+      <c r="F141" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J141" s="72">
+      <c r="J141" s="52">
         <v>123</v>
       </c>
       <c r="K141" s="18">
@@ -6245,12 +6245,12 @@
       <c r="N141" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O141" s="75" t="s">
+      <c r="O141" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="72">
+      <c r="A142" s="52">
         <v>124</v>
       </c>
       <c r="B142" s="18">
@@ -6265,10 +6265,10 @@
       <c r="E142" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F142" s="75" t="s">
+      <c r="F142" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="J142" s="72">
+      <c r="J142" s="52">
         <v>124</v>
       </c>
       <c r="K142" s="18">
@@ -6283,12 +6283,12 @@
       <c r="N142" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O142" s="75" t="s">
+      <c r="O142" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" s="72">
+      <c r="A143" s="52">
         <v>125</v>
       </c>
       <c r="B143" s="18">
@@ -6303,10 +6303,10 @@
       <c r="E143" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F143" s="75" t="s">
+      <c r="F143" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="J143" s="72">
+      <c r="J143" s="52">
         <v>125</v>
       </c>
       <c r="K143" s="18">
@@ -6321,12 +6321,12 @@
       <c r="N143" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O143" s="75" t="s">
+      <c r="O143" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" s="72">
+      <c r="A144" s="52">
         <v>126</v>
       </c>
       <c r="B144" s="18">
@@ -6341,10 +6341,10 @@
       <c r="E144" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F144" s="75" t="s">
+      <c r="F144" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="J144" s="72">
+      <c r="J144" s="52">
         <v>126</v>
       </c>
       <c r="K144" s="18">
@@ -6359,12 +6359,12 @@
       <c r="N144" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O144" s="75" t="s">
+      <c r="O144" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="72">
+      <c r="A145" s="52">
         <v>127</v>
       </c>
       <c r="B145" s="18">
@@ -6379,10 +6379,10 @@
       <c r="E145" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F145" s="75" t="s">
+      <c r="F145" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="J145" s="72">
+      <c r="J145" s="52">
         <v>127</v>
       </c>
       <c r="K145" s="18">
@@ -6397,12 +6397,12 @@
       <c r="N145" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O145" s="75" t="s">
+      <c r="O145" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="72">
+      <c r="A146" s="52">
         <v>128</v>
       </c>
       <c r="B146" s="18">
@@ -6417,10 +6417,10 @@
       <c r="E146" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F146" s="75" t="s">
+      <c r="F146" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J146" s="72">
+      <c r="J146" s="52">
         <v>128</v>
       </c>
       <c r="K146" s="18">
@@ -6435,12 +6435,12 @@
       <c r="N146" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O146" s="75" t="s">
+      <c r="O146" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="72">
+      <c r="A147" s="52">
         <v>129</v>
       </c>
       <c r="B147" s="18">
@@ -6455,10 +6455,10 @@
       <c r="E147" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F147" s="75" t="s">
+      <c r="F147" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J147" s="72">
+      <c r="J147" s="52">
         <v>129</v>
       </c>
       <c r="K147" s="18">
@@ -6473,12 +6473,12 @@
       <c r="N147" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O147" s="75" t="s">
+      <c r="O147" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="72">
+      <c r="A148" s="52">
         <v>130</v>
       </c>
       <c r="B148" s="18">
@@ -6493,10 +6493,10 @@
       <c r="E148" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F148" s="75" t="s">
+      <c r="F148" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J148" s="72">
+      <c r="J148" s="52">
         <v>130</v>
       </c>
       <c r="K148" s="18">
@@ -6511,12 +6511,12 @@
       <c r="N148" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O148" s="75" t="s">
+      <c r="O148" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="72">
+      <c r="A149" s="52">
         <v>131</v>
       </c>
       <c r="B149" s="18">
@@ -6531,10 +6531,10 @@
       <c r="E149" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F149" s="75" t="s">
+      <c r="F149" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J149" s="72">
+      <c r="J149" s="52">
         <v>131</v>
       </c>
       <c r="K149" s="18">
@@ -6549,12 +6549,12 @@
       <c r="N149" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O149" s="75" t="s">
+      <c r="O149" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="72">
+      <c r="A150" s="52">
         <v>132</v>
       </c>
       <c r="B150" s="18">
@@ -6569,10 +6569,10 @@
       <c r="E150" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F150" s="75" t="s">
+      <c r="F150" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J150" s="72">
+      <c r="J150" s="52">
         <v>132</v>
       </c>
       <c r="K150" s="18">
@@ -6587,12 +6587,12 @@
       <c r="N150" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O150" s="75" t="s">
+      <c r="O150" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="72">
+      <c r="A151" s="52">
         <v>133</v>
       </c>
       <c r="B151" s="18">
@@ -6607,10 +6607,10 @@
       <c r="E151" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F151" s="75" t="s">
+      <c r="F151" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J151" s="72">
+      <c r="J151" s="52">
         <v>133</v>
       </c>
       <c r="K151" s="18">
@@ -6625,12 +6625,12 @@
       <c r="N151" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O151" s="75" t="s">
+      <c r="O151" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" s="72">
+      <c r="A152" s="52">
         <v>134</v>
       </c>
       <c r="B152" s="18">
@@ -6645,10 +6645,10 @@
       <c r="E152" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F152" s="75" t="s">
+      <c r="F152" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J152" s="72">
+      <c r="J152" s="52">
         <v>134</v>
       </c>
       <c r="K152" s="18">
@@ -6663,12 +6663,12 @@
       <c r="N152" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O152" s="75" t="s">
+      <c r="O152" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="72">
+      <c r="A153" s="52">
         <v>135</v>
       </c>
       <c r="B153" s="18">
@@ -6683,10 +6683,10 @@
       <c r="E153" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F153" s="75" t="s">
+      <c r="F153" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J153" s="72">
+      <c r="J153" s="52">
         <v>135</v>
       </c>
       <c r="K153" s="18">
@@ -6701,12 +6701,12 @@
       <c r="N153" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O153" s="75" t="s">
+      <c r="O153" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="72">
+      <c r="A154" s="52">
         <v>136</v>
       </c>
       <c r="B154" s="18">
@@ -6721,10 +6721,10 @@
       <c r="E154" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F154" s="75" t="s">
+      <c r="F154" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J154" s="72">
+      <c r="J154" s="52">
         <v>136</v>
       </c>
       <c r="K154" s="18">
@@ -6739,12 +6739,12 @@
       <c r="N154" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O154" s="75" t="s">
+      <c r="O154" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="72">
+      <c r="A155" s="52">
         <v>137</v>
       </c>
       <c r="B155" s="18">
@@ -6759,10 +6759,10 @@
       <c r="E155" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F155" s="75" t="s">
+      <c r="F155" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J155" s="72">
+      <c r="J155" s="52">
         <v>137</v>
       </c>
       <c r="K155" s="18">
@@ -6777,12 +6777,12 @@
       <c r="N155" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O155" s="75" t="s">
+      <c r="O155" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="72">
+      <c r="A156" s="52">
         <v>138</v>
       </c>
       <c r="B156" s="18">
@@ -6797,10 +6797,10 @@
       <c r="E156" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F156" s="75" t="s">
+      <c r="F156" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J156" s="72">
+      <c r="J156" s="52">
         <v>138</v>
       </c>
       <c r="K156" s="18">
@@ -6815,12 +6815,12 @@
       <c r="N156" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O156" s="75" t="s">
+      <c r="O156" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="72">
+      <c r="A157" s="52">
         <v>139</v>
       </c>
       <c r="B157" s="18">
@@ -6835,10 +6835,10 @@
       <c r="E157" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F157" s="75" t="s">
+      <c r="F157" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J157" s="72">
+      <c r="J157" s="52">
         <v>139</v>
       </c>
       <c r="K157" s="18">
@@ -6853,12 +6853,12 @@
       <c r="N157" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O157" s="75" t="s">
+      <c r="O157" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="72">
+      <c r="A158" s="52">
         <v>140</v>
       </c>
       <c r="B158" s="18">
@@ -6873,10 +6873,10 @@
       <c r="E158" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F158" s="75" t="s">
+      <c r="F158" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J158" s="72">
+      <c r="J158" s="52">
         <v>140</v>
       </c>
       <c r="K158" s="18">
@@ -6891,12 +6891,12 @@
       <c r="N158" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O158" s="75" t="s">
+      <c r="O158" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" s="72">
+      <c r="A159" s="52">
         <v>141</v>
       </c>
       <c r="B159" s="18">
@@ -6911,10 +6911,10 @@
       <c r="E159" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F159" s="75" t="s">
+      <c r="F159" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J159" s="72">
+      <c r="J159" s="52">
         <v>141</v>
       </c>
       <c r="K159" s="18">
@@ -6929,12 +6929,12 @@
       <c r="N159" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O159" s="75" t="s">
+      <c r="O159" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" s="72">
+      <c r="A160" s="52">
         <v>142</v>
       </c>
       <c r="B160" s="18">
@@ -6949,10 +6949,10 @@
       <c r="E160" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F160" s="75" t="s">
+      <c r="F160" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J160" s="72">
+      <c r="J160" s="52">
         <v>142</v>
       </c>
       <c r="K160" s="18">
@@ -6967,12 +6967,12 @@
       <c r="N160" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O160" s="75" t="s">
+      <c r="O160" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A161" s="72">
+      <c r="A161" s="52">
         <v>143</v>
       </c>
       <c r="B161" s="18">
@@ -6987,10 +6987,10 @@
       <c r="E161" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F161" s="75" t="s">
+      <c r="F161" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J161" s="72">
+      <c r="J161" s="52">
         <v>143</v>
       </c>
       <c r="K161" s="18">
@@ -7005,12 +7005,12 @@
       <c r="N161" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O161" s="75" t="s">
+      <c r="O161" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" s="72">
+      <c r="A162" s="52">
         <v>144</v>
       </c>
       <c r="B162" s="18">
@@ -7025,10 +7025,10 @@
       <c r="E162" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F162" s="75" t="s">
+      <c r="F162" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J162" s="72">
+      <c r="J162" s="52">
         <v>144</v>
       </c>
       <c r="K162" s="18">
@@ -7043,12 +7043,12 @@
       <c r="N162" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O162" s="75" t="s">
+      <c r="O162" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" s="72">
+      <c r="A163" s="52">
         <v>145</v>
       </c>
       <c r="B163" s="18">
@@ -7063,10 +7063,10 @@
       <c r="E163" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F163" s="75" t="s">
+      <c r="F163" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J163" s="72">
+      <c r="J163" s="52">
         <v>145</v>
       </c>
       <c r="K163" s="18">
@@ -7081,12 +7081,12 @@
       <c r="N163" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O163" s="75" t="s">
+      <c r="O163" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" s="72">
+      <c r="A164" s="52">
         <v>146</v>
       </c>
       <c r="B164" s="18">
@@ -7101,10 +7101,10 @@
       <c r="E164" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F164" s="75" t="s">
+      <c r="F164" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J164" s="72">
+      <c r="J164" s="52">
         <v>146</v>
       </c>
       <c r="K164" s="18">
@@ -7119,12 +7119,12 @@
       <c r="N164" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O164" s="75" t="s">
+      <c r="O164" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" s="72">
+      <c r="A165" s="52">
         <v>147</v>
       </c>
       <c r="B165" s="18">
@@ -7139,10 +7139,10 @@
       <c r="E165" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F165" s="75" t="s">
+      <c r="F165" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J165" s="72">
+      <c r="J165" s="52">
         <v>147</v>
       </c>
       <c r="K165" s="18">
@@ -7157,12 +7157,12 @@
       <c r="N165" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O165" s="75" t="s">
+      <c r="O165" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" s="72">
+      <c r="A166" s="52">
         <v>148</v>
       </c>
       <c r="B166" s="18">
@@ -7177,10 +7177,10 @@
       <c r="E166" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F166" s="75" t="s">
+      <c r="F166" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J166" s="72">
+      <c r="J166" s="52">
         <v>148</v>
       </c>
       <c r="K166" s="18">
@@ -7195,12 +7195,12 @@
       <c r="N166" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O166" s="75" t="s">
+      <c r="O166" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" s="72">
+      <c r="A167" s="52">
         <v>149</v>
       </c>
       <c r="B167" s="18">
@@ -7215,10 +7215,10 @@
       <c r="E167" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F167" s="75" t="s">
+      <c r="F167" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J167" s="72">
+      <c r="J167" s="52">
         <v>149</v>
       </c>
       <c r="K167" s="18">
@@ -7233,12 +7233,12 @@
       <c r="N167" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O167" s="75" t="s">
+      <c r="O167" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" s="72">
+      <c r="A168" s="52">
         <v>150</v>
       </c>
       <c r="B168" s="18">
@@ -7253,10 +7253,10 @@
       <c r="E168" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F168" s="75" t="s">
+      <c r="F168" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J168" s="72">
+      <c r="J168" s="52">
         <v>150</v>
       </c>
       <c r="K168" s="18">
@@ -7271,12 +7271,12 @@
       <c r="N168" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O168" s="75" t="s">
+      <c r="O168" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="72">
+      <c r="A169" s="52">
         <v>151</v>
       </c>
       <c r="B169" s="18">
@@ -7291,10 +7291,10 @@
       <c r="E169" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F169" s="75" t="s">
+      <c r="F169" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J169" s="72">
+      <c r="J169" s="52">
         <v>151</v>
       </c>
       <c r="K169" s="18">
@@ -7309,12 +7309,12 @@
       <c r="N169" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O169" s="75" t="s">
+      <c r="O169" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="72">
+      <c r="A170" s="52">
         <v>152</v>
       </c>
       <c r="B170" s="18">
@@ -7329,10 +7329,10 @@
       <c r="E170" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F170" s="75" t="s">
+      <c r="F170" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J170" s="72">
+      <c r="J170" s="52">
         <v>152</v>
       </c>
       <c r="K170" s="18">
@@ -7347,12 +7347,12 @@
       <c r="N170" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O170" s="75" t="s">
+      <c r="O170" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="72">
+      <c r="A171" s="52">
         <v>153</v>
       </c>
       <c r="B171" s="18">
@@ -7367,10 +7367,10 @@
       <c r="E171" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F171" s="75" t="s">
+      <c r="F171" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J171" s="72">
+      <c r="J171" s="52">
         <v>153</v>
       </c>
       <c r="K171" s="18">
@@ -7385,12 +7385,12 @@
       <c r="N171" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O171" s="75" t="s">
+      <c r="O171" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="72">
+      <c r="A172" s="52">
         <v>154</v>
       </c>
       <c r="B172" s="18">
@@ -7405,10 +7405,10 @@
       <c r="E172" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F172" s="75" t="s">
+      <c r="F172" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J172" s="72">
+      <c r="J172" s="52">
         <v>154</v>
       </c>
       <c r="K172" s="18">
@@ -7423,12 +7423,12 @@
       <c r="N172" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O172" s="75" t="s">
+      <c r="O172" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" s="72">
+      <c r="A173" s="52">
         <v>155</v>
       </c>
       <c r="B173" s="18">
@@ -7443,10 +7443,10 @@
       <c r="E173" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F173" s="75" t="s">
+      <c r="F173" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J173" s="72">
+      <c r="J173" s="52">
         <v>155</v>
       </c>
       <c r="K173" s="18">
@@ -7461,12 +7461,12 @@
       <c r="N173" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O173" s="75" t="s">
+      <c r="O173" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="72">
+      <c r="A174" s="52">
         <v>156</v>
       </c>
       <c r="B174" s="18">
@@ -7481,10 +7481,10 @@
       <c r="E174" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F174" s="75" t="s">
+      <c r="F174" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J174" s="72">
+      <c r="J174" s="52">
         <v>156</v>
       </c>
       <c r="K174" s="18">
@@ -7499,12 +7499,12 @@
       <c r="N174" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O174" s="75" t="s">
+      <c r="O174" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" s="72">
+      <c r="A175" s="52">
         <v>157</v>
       </c>
       <c r="B175" s="18">
@@ -7519,10 +7519,10 @@
       <c r="E175" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F175" s="75" t="s">
+      <c r="F175" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J175" s="72">
+      <c r="J175" s="52">
         <v>157</v>
       </c>
       <c r="K175" s="18">
@@ -7537,12 +7537,12 @@
       <c r="N175" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O175" s="75" t="s">
+      <c r="O175" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" s="72">
+      <c r="A176" s="52">
         <v>158</v>
       </c>
       <c r="B176" s="18">
@@ -7557,10 +7557,10 @@
       <c r="E176" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F176" s="75" t="s">
+      <c r="F176" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="J176" s="72">
+      <c r="J176" s="52">
         <v>158</v>
       </c>
       <c r="K176" s="18">
@@ -7575,12 +7575,12 @@
       <c r="N176" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O176" s="75" t="s">
+      <c r="O176" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" s="72">
+      <c r="A177" s="52">
         <v>159</v>
       </c>
       <c r="B177" s="18">
@@ -7595,10 +7595,10 @@
       <c r="E177" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F177" s="75" t="s">
+      <c r="F177" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="J177" s="72">
+      <c r="J177" s="52">
         <v>159</v>
       </c>
       <c r="K177" s="18">
@@ -7613,12 +7613,12 @@
       <c r="N177" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O177" s="75" t="s">
+      <c r="O177" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="72">
+      <c r="A178" s="52">
         <v>160</v>
       </c>
       <c r="B178" s="18">
@@ -7633,10 +7633,10 @@
       <c r="E178" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F178" s="75" t="s">
+      <c r="F178" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J178" s="72">
+      <c r="J178" s="52">
         <v>160</v>
       </c>
       <c r="K178" s="18">
@@ -7651,12 +7651,12 @@
       <c r="N178" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O178" s="75" t="s">
+      <c r="O178" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="72">
+      <c r="A179" s="52">
         <v>161</v>
       </c>
       <c r="B179" s="18">
@@ -7671,10 +7671,10 @@
       <c r="E179" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F179" s="75" t="s">
+      <c r="F179" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J179" s="72">
+      <c r="J179" s="52">
         <v>161</v>
       </c>
       <c r="K179" s="18">
@@ -7689,12 +7689,12 @@
       <c r="N179" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O179" s="75" t="s">
+      <c r="O179" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" s="72">
+      <c r="A180" s="52">
         <v>162</v>
       </c>
       <c r="B180" s="18">
@@ -7709,10 +7709,10 @@
       <c r="E180" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F180" s="75" t="s">
+      <c r="F180" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J180" s="72">
+      <c r="J180" s="52">
         <v>162</v>
       </c>
       <c r="K180" s="18">
@@ -7727,12 +7727,12 @@
       <c r="N180" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O180" s="75" t="s">
+      <c r="O180" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" s="72">
+      <c r="A181" s="52">
         <v>163</v>
       </c>
       <c r="B181" s="18">
@@ -7747,10 +7747,10 @@
       <c r="E181" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F181" s="75" t="s">
+      <c r="F181" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J181" s="72">
+      <c r="J181" s="52">
         <v>163</v>
       </c>
       <c r="K181" s="18">
@@ -7765,12 +7765,12 @@
       <c r="N181" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O181" s="75" t="s">
+      <c r="O181" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" s="72">
+      <c r="A182" s="52">
         <v>164</v>
       </c>
       <c r="B182" s="18">
@@ -7785,10 +7785,10 @@
       <c r="E182" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F182" s="75" t="s">
+      <c r="F182" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J182" s="72">
+      <c r="J182" s="52">
         <v>164</v>
       </c>
       <c r="K182" s="18">
@@ -7803,12 +7803,12 @@
       <c r="N182" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O182" s="75" t="s">
+      <c r="O182" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" s="72">
+      <c r="A183" s="52">
         <v>165</v>
       </c>
       <c r="B183" s="18">
@@ -7823,10 +7823,10 @@
       <c r="E183" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F183" s="75" t="s">
+      <c r="F183" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="J183" s="72">
+      <c r="J183" s="52">
         <v>165</v>
       </c>
       <c r="K183" s="18">
@@ -7841,12 +7841,12 @@
       <c r="N183" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O183" s="75" t="s">
+      <c r="O183" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" s="72">
+      <c r="A184" s="52">
         <v>166</v>
       </c>
       <c r="B184" s="18">
@@ -7861,10 +7861,10 @@
       <c r="E184" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F184" s="75" t="s">
+      <c r="F184" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J184" s="72">
+      <c r="J184" s="52">
         <v>166</v>
       </c>
       <c r="K184" s="18">
@@ -7879,12 +7879,12 @@
       <c r="N184" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O184" s="75" t="s">
+      <c r="O184" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" s="72">
+      <c r="A185" s="52">
         <v>167</v>
       </c>
       <c r="B185" s="18">
@@ -7899,10 +7899,10 @@
       <c r="E185" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F185" s="75" t="s">
+      <c r="F185" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J185" s="72">
+      <c r="J185" s="52">
         <v>167</v>
       </c>
       <c r="K185" s="18">
@@ -7917,12 +7917,12 @@
       <c r="N185" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O185" s="75" t="s">
+      <c r="O185" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" s="72">
+      <c r="A186" s="52">
         <v>168</v>
       </c>
       <c r="B186" s="18">
@@ -7937,10 +7937,10 @@
       <c r="E186" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F186" s="75" t="s">
+      <c r="F186" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J186" s="72">
+      <c r="J186" s="52">
         <v>168</v>
       </c>
       <c r="K186" s="18">
@@ -7955,12 +7955,12 @@
       <c r="N186" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O186" s="75" t="s">
+      <c r="O186" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" s="72">
+      <c r="A187" s="52">
         <v>169</v>
       </c>
       <c r="B187" s="18">
@@ -7975,10 +7975,10 @@
       <c r="E187" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F187" s="75" t="s">
+      <c r="F187" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J187" s="72">
+      <c r="J187" s="52">
         <v>169</v>
       </c>
       <c r="K187" s="18">
@@ -7993,12 +7993,12 @@
       <c r="N187" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O187" s="75" t="s">
+      <c r="O187" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" s="72">
+      <c r="A188" s="52">
         <v>170</v>
       </c>
       <c r="B188" s="18">
@@ -8013,10 +8013,10 @@
       <c r="E188" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F188" s="75" t="s">
+      <c r="F188" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J188" s="72">
+      <c r="J188" s="52">
         <v>170</v>
       </c>
       <c r="K188" s="18">
@@ -8031,12 +8031,12 @@
       <c r="N188" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O188" s="75" t="s">
+      <c r="O188" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" s="72">
+      <c r="A189" s="52">
         <v>171</v>
       </c>
       <c r="B189" s="18">
@@ -8051,10 +8051,10 @@
       <c r="E189" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F189" s="75" t="s">
+      <c r="F189" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J189" s="72">
+      <c r="J189" s="52">
         <v>171</v>
       </c>
       <c r="K189" s="18">
@@ -8069,12 +8069,12 @@
       <c r="N189" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O189" s="75" t="s">
+      <c r="O189" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190" s="72">
+      <c r="A190" s="52">
         <v>172</v>
       </c>
       <c r="B190" s="18">
@@ -8089,10 +8089,10 @@
       <c r="E190" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F190" s="75" t="s">
+      <c r="F190" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J190" s="72">
+      <c r="J190" s="52">
         <v>172</v>
       </c>
       <c r="K190" s="18">
@@ -8107,12 +8107,12 @@
       <c r="N190" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O190" s="75" t="s">
+      <c r="O190" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A191" s="72">
+      <c r="A191" s="52">
         <v>173</v>
       </c>
       <c r="B191" s="18">
@@ -8127,10 +8127,10 @@
       <c r="E191" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F191" s="75" t="s">
+      <c r="F191" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J191" s="72">
+      <c r="J191" s="52">
         <v>173</v>
       </c>
       <c r="K191" s="18">
@@ -8145,12 +8145,12 @@
       <c r="N191" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O191" s="75" t="s">
+      <c r="O191" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192" s="72">
+      <c r="A192" s="52">
         <v>174</v>
       </c>
       <c r="B192" s="18">
@@ -8165,10 +8165,10 @@
       <c r="E192" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F192" s="75" t="s">
+      <c r="F192" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J192" s="72">
+      <c r="J192" s="52">
         <v>174</v>
       </c>
       <c r="K192" s="18">
@@ -8183,12 +8183,12 @@
       <c r="N192" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O192" s="75" t="s">
+      <c r="O192" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A193" s="72">
+      <c r="A193" s="52">
         <v>175</v>
       </c>
       <c r="B193" s="18">
@@ -8203,10 +8203,10 @@
       <c r="E193" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F193" s="75" t="s">
+      <c r="F193" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J193" s="72">
+      <c r="J193" s="52">
         <v>175</v>
       </c>
       <c r="K193" s="18">
@@ -8221,12 +8221,12 @@
       <c r="N193" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O193" s="75" t="s">
+      <c r="O193" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A194" s="72">
+      <c r="A194" s="52">
         <v>176</v>
       </c>
       <c r="B194" s="18">
@@ -8241,10 +8241,10 @@
       <c r="E194" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F194" s="75" t="s">
+      <c r="F194" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J194" s="72">
+      <c r="J194" s="52">
         <v>176</v>
       </c>
       <c r="K194" s="18">
@@ -8259,12 +8259,12 @@
       <c r="N194" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O194" s="75" t="s">
+      <c r="O194" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" s="72">
+      <c r="A195" s="52">
         <v>177</v>
       </c>
       <c r="B195" s="18">
@@ -8279,10 +8279,10 @@
       <c r="E195" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F195" s="75" t="s">
+      <c r="F195" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J195" s="72">
+      <c r="J195" s="52">
         <v>177</v>
       </c>
       <c r="K195" s="18">
@@ -8297,12 +8297,12 @@
       <c r="N195" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O195" s="75" t="s">
+      <c r="O195" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A196" s="72">
+      <c r="A196" s="52">
         <v>178</v>
       </c>
       <c r="B196" s="18">
@@ -8317,10 +8317,10 @@
       <c r="E196" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F196" s="75" t="s">
+      <c r="F196" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J196" s="72">
+      <c r="J196" s="52">
         <v>178</v>
       </c>
       <c r="K196" s="18">
@@ -8335,12 +8335,12 @@
       <c r="N196" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O196" s="75" t="s">
+      <c r="O196" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A197" s="72">
+      <c r="A197" s="52">
         <v>179</v>
       </c>
       <c r="B197" s="18">
@@ -8355,10 +8355,10 @@
       <c r="E197" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F197" s="75" t="s">
+      <c r="F197" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J197" s="72">
+      <c r="J197" s="52">
         <v>179</v>
       </c>
       <c r="K197" s="18">
@@ -8373,12 +8373,12 @@
       <c r="N197" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O197" s="75" t="s">
+      <c r="O197" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" s="72">
+      <c r="A198" s="52">
         <v>180</v>
       </c>
       <c r="B198" s="18">
@@ -8393,10 +8393,10 @@
       <c r="E198" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F198" s="75" t="s">
+      <c r="F198" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J198" s="72">
+      <c r="J198" s="52">
         <v>180</v>
       </c>
       <c r="K198" s="18">
@@ -8411,12 +8411,12 @@
       <c r="N198" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="O198" s="75" t="s">
+      <c r="O198" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A199" s="72">
+      <c r="A199" s="52">
         <v>181</v>
       </c>
       <c r="B199" s="18">
@@ -8431,10 +8431,10 @@
       <c r="E199" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F199" s="75" t="s">
+      <c r="F199" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J199" s="72">
+      <c r="J199" s="52">
         <v>181</v>
       </c>
       <c r="K199" s="18">
@@ -8449,12 +8449,12 @@
       <c r="N199" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="O199" s="75" t="s">
+      <c r="O199" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A200" s="72">
+      <c r="A200" s="52">
         <v>182</v>
       </c>
       <c r="B200" s="18">
@@ -8469,10 +8469,10 @@
       <c r="E200" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F200" s="75" t="s">
+      <c r="F200" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J200" s="72">
+      <c r="J200" s="52">
         <v>182</v>
       </c>
       <c r="K200" s="18">
@@ -8487,12 +8487,12 @@
       <c r="N200" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="O200" s="75" t="s">
+      <c r="O200" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="72">
+      <c r="A201" s="52">
         <v>183</v>
       </c>
       <c r="B201" s="18">
@@ -8507,22 +8507,22 @@
       <c r="E201" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F201" s="75" t="s">
+      <c r="F201" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J201" s="73">
+      <c r="J201" s="53">
         <v>183</v>
       </c>
-      <c r="K201" s="77">
+      <c r="K201" s="57">
         <v>443</v>
       </c>
-      <c r="L201" s="77">
+      <c r="L201" s="57">
         <v>440</v>
       </c>
-      <c r="M201" s="77" t="s">
+      <c r="M201" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="N201" s="77" t="s">
+      <c r="N201" s="57" t="s">
         <v>149</v>
       </c>
       <c r="O201" s="16" t="s">
@@ -8530,7 +8530,7 @@
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A202" s="72">
+      <c r="A202" s="52">
         <v>184</v>
       </c>
       <c r="B202" s="18">
@@ -8545,12 +8545,12 @@
       <c r="E202" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F202" s="75" t="s">
+      <c r="F202" s="55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A203" s="72">
+      <c r="A203" s="52">
         <v>185</v>
       </c>
       <c r="B203" s="18">
@@ -8565,12 +8565,12 @@
       <c r="E203" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F203" s="75" t="s">
+      <c r="F203" s="55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A204" s="72">
+      <c r="A204" s="52">
         <v>186</v>
       </c>
       <c r="B204" s="18">
@@ -8585,12 +8585,12 @@
       <c r="E204" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F204" s="75" t="s">
+      <c r="F204" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A205" s="72">
+      <c r="A205" s="52">
         <v>187</v>
       </c>
       <c r="B205" s="18">
@@ -8605,12 +8605,12 @@
       <c r="E205" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F205" s="75" t="s">
+      <c r="F205" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A206" s="72">
+      <c r="A206" s="52">
         <v>188</v>
       </c>
       <c r="B206" s="18">
@@ -8625,12 +8625,12 @@
       <c r="E206" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F206" s="75" t="s">
+      <c r="F206" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A207" s="72">
+      <c r="A207" s="52">
         <v>189</v>
       </c>
       <c r="B207" s="18">
@@ -8645,12 +8645,12 @@
       <c r="E207" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F207" s="75" t="s">
+      <c r="F207" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A208" s="72">
+      <c r="A208" s="52">
         <v>190</v>
       </c>
       <c r="B208" s="18">
@@ -8665,12 +8665,12 @@
       <c r="E208" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F208" s="75" t="s">
+      <c r="F208" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="72">
+      <c r="A209" s="52">
         <v>191</v>
       </c>
       <c r="B209" s="18">
@@ -8685,12 +8685,12 @@
       <c r="E209" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F209" s="75" t="s">
+      <c r="F209" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="72">
+      <c r="A210" s="52">
         <v>192</v>
       </c>
       <c r="B210" s="18">
@@ -8705,12 +8705,12 @@
       <c r="E210" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F210" s="75" t="s">
+      <c r="F210" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="72">
+      <c r="A211" s="52">
         <v>193</v>
       </c>
       <c r="B211" s="18">
@@ -8725,12 +8725,12 @@
       <c r="E211" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F211" s="75" t="s">
+      <c r="F211" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="72">
+      <c r="A212" s="52">
         <v>194</v>
       </c>
       <c r="B212" s="18">
@@ -8745,12 +8745,12 @@
       <c r="E212" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F212" s="75" t="s">
+      <c r="F212" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="72">
+      <c r="A213" s="52">
         <v>195</v>
       </c>
       <c r="B213" s="18">
@@ -8765,12 +8765,12 @@
       <c r="E213" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F213" s="75" t="s">
+      <c r="F213" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="72">
+      <c r="A214" s="52">
         <v>196</v>
       </c>
       <c r="B214" s="18">
@@ -8785,12 +8785,12 @@
       <c r="E214" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F214" s="75" t="s">
+      <c r="F214" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="72">
+      <c r="A215" s="52">
         <v>197</v>
       </c>
       <c r="B215" s="18">
@@ -8805,12 +8805,12 @@
       <c r="E215" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F215" s="75" t="s">
+      <c r="F215" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="72">
+      <c r="A216" s="52">
         <v>198</v>
       </c>
       <c r="B216" s="18">
@@ -8825,12 +8825,12 @@
       <c r="E216" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F216" s="75" t="s">
+      <c r="F216" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="72">
+      <c r="A217" s="52">
         <v>199</v>
       </c>
       <c r="B217" s="18">
@@ -8845,12 +8845,12 @@
       <c r="E217" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F217" s="75" t="s">
+      <c r="F217" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="72">
+      <c r="A218" s="52">
         <v>200</v>
       </c>
       <c r="B218" s="18">
@@ -8865,12 +8865,12 @@
       <c r="E218" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F218" s="75" t="s">
+      <c r="F218" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="72">
+      <c r="A219" s="52">
         <v>201</v>
       </c>
       <c r="B219" s="18">
@@ -8885,12 +8885,12 @@
       <c r="E219" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F219" s="75" t="s">
+      <c r="F219" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="72">
+      <c r="A220" s="52">
         <v>202</v>
       </c>
       <c r="B220" s="18">
@@ -8905,12 +8905,12 @@
       <c r="E220" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F220" s="75" t="s">
+      <c r="F220" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="72">
+      <c r="A221" s="52">
         <v>203</v>
       </c>
       <c r="B221" s="18">
@@ -8925,12 +8925,12 @@
       <c r="E221" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F221" s="75" t="s">
+      <c r="F221" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="72">
+      <c r="A222" s="52">
         <v>204</v>
       </c>
       <c r="B222" s="18">
@@ -8945,12 +8945,12 @@
       <c r="E222" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F222" s="75" t="s">
+      <c r="F222" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="72">
+      <c r="A223" s="52">
         <v>205</v>
       </c>
       <c r="B223" s="18">
@@ -8965,12 +8965,12 @@
       <c r="E223" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F223" s="75" t="s">
+      <c r="F223" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="72">
+      <c r="A224" s="52">
         <v>206</v>
       </c>
       <c r="B224" s="18">
@@ -8985,12 +8985,12 @@
       <c r="E224" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F224" s="75" t="s">
+      <c r="F224" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="72">
+      <c r="A225" s="52">
         <v>207</v>
       </c>
       <c r="B225" s="18">
@@ -9005,12 +9005,12 @@
       <c r="E225" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F225" s="75" t="s">
+      <c r="F225" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="72">
+      <c r="A226" s="52">
         <v>208</v>
       </c>
       <c r="B226" s="18">
@@ -9025,12 +9025,12 @@
       <c r="E226" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F226" s="75" t="s">
+      <c r="F226" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="72">
+      <c r="A227" s="52">
         <v>209</v>
       </c>
       <c r="B227" s="18">
@@ -9045,12 +9045,12 @@
       <c r="E227" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F227" s="75" t="s">
+      <c r="F227" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="72">
+      <c r="A228" s="52">
         <v>210</v>
       </c>
       <c r="B228" s="18">
@@ -9065,12 +9065,12 @@
       <c r="E228" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F228" s="75" t="s">
+      <c r="F228" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="72">
+      <c r="A229" s="52">
         <v>211</v>
       </c>
       <c r="B229" s="18">
@@ -9085,12 +9085,12 @@
       <c r="E229" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F229" s="75" t="s">
+      <c r="F229" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="72">
+      <c r="A230" s="52">
         <v>212</v>
       </c>
       <c r="B230" s="18">
@@ -9105,12 +9105,12 @@
       <c r="E230" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F230" s="75" t="s">
+      <c r="F230" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="72">
+      <c r="A231" s="52">
         <v>213</v>
       </c>
       <c r="B231" s="18">
@@ -9125,12 +9125,12 @@
       <c r="E231" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F231" s="75" t="s">
+      <c r="F231" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="72">
+      <c r="A232" s="52">
         <v>214</v>
       </c>
       <c r="B232" s="18">
@@ -9145,12 +9145,12 @@
       <c r="E232" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F232" s="75" t="s">
+      <c r="F232" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="72">
+      <c r="A233" s="52">
         <v>215</v>
       </c>
       <c r="B233" s="18">
@@ -9165,12 +9165,12 @@
       <c r="E233" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F233" s="75" t="s">
+      <c r="F233" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="72">
+      <c r="A234" s="52">
         <v>216</v>
       </c>
       <c r="B234" s="18">
@@ -9185,12 +9185,12 @@
       <c r="E234" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F234" s="75" t="s">
+      <c r="F234" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="72">
+      <c r="A235" s="52">
         <v>217</v>
       </c>
       <c r="B235" s="18">
@@ -9205,12 +9205,12 @@
       <c r="E235" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F235" s="75" t="s">
+      <c r="F235" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="72">
+      <c r="A236" s="52">
         <v>218</v>
       </c>
       <c r="B236" s="18">
@@ -9225,12 +9225,12 @@
       <c r="E236" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F236" s="75" t="s">
+      <c r="F236" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="72">
+      <c r="A237" s="52">
         <v>219</v>
       </c>
       <c r="B237" s="18">
@@ -9245,12 +9245,12 @@
       <c r="E237" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F237" s="75" t="s">
+      <c r="F237" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="72">
+      <c r="A238" s="52">
         <v>220</v>
       </c>
       <c r="B238" s="18">
@@ -9265,12 +9265,12 @@
       <c r="E238" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F238" s="75" t="s">
+      <c r="F238" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="72">
+      <c r="A239" s="52">
         <v>221</v>
       </c>
       <c r="B239" s="18">
@@ -9285,12 +9285,12 @@
       <c r="E239" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F239" s="75" t="s">
+      <c r="F239" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="72">
+      <c r="A240" s="52">
         <v>222</v>
       </c>
       <c r="B240" s="18">
@@ -9305,12 +9305,12 @@
       <c r="E240" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F240" s="75" t="s">
+      <c r="F240" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="72">
+      <c r="A241" s="52">
         <v>223</v>
       </c>
       <c r="B241" s="18">
@@ -9325,12 +9325,12 @@
       <c r="E241" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F241" s="75" t="s">
+      <c r="F241" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="72">
+      <c r="A242" s="52">
         <v>224</v>
       </c>
       <c r="B242" s="18">
@@ -9345,12 +9345,12 @@
       <c r="E242" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F242" s="75" t="s">
+      <c r="F242" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="72">
+      <c r="A243" s="52">
         <v>225</v>
       </c>
       <c r="B243" s="18">
@@ -9365,12 +9365,12 @@
       <c r="E243" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F243" s="75" t="s">
+      <c r="F243" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="72">
+      <c r="A244" s="52">
         <v>226</v>
       </c>
       <c r="B244" s="18">
@@ -9385,12 +9385,12 @@
       <c r="E244" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F244" s="75" t="s">
+      <c r="F244" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="72">
+      <c r="A245" s="52">
         <v>227</v>
       </c>
       <c r="B245" s="18">
@@ -9405,12 +9405,12 @@
       <c r="E245" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F245" s="75" t="s">
+      <c r="F245" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="72">
+      <c r="A246" s="52">
         <v>228</v>
       </c>
       <c r="B246" s="18">
@@ -9425,12 +9425,12 @@
       <c r="E246" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F246" s="75" t="s">
+      <c r="F246" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="72">
+      <c r="A247" s="52">
         <v>229</v>
       </c>
       <c r="B247" s="18">
@@ -9445,12 +9445,12 @@
       <c r="E247" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F247" s="75" t="s">
+      <c r="F247" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="72">
+      <c r="A248" s="52">
         <v>230</v>
       </c>
       <c r="B248" s="18">
@@ -9465,12 +9465,12 @@
       <c r="E248" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F248" s="75" t="s">
+      <c r="F248" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="72">
+      <c r="A249" s="52">
         <v>231</v>
       </c>
       <c r="B249" s="18">
@@ -9485,12 +9485,12 @@
       <c r="E249" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F249" s="75" t="s">
+      <c r="F249" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="72">
+      <c r="A250" s="52">
         <v>232</v>
       </c>
       <c r="B250" s="18">
@@ -9505,12 +9505,12 @@
       <c r="E250" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F250" s="75" t="s">
+      <c r="F250" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="72">
+      <c r="A251" s="52">
         <v>233</v>
       </c>
       <c r="B251" s="18">
@@ -9525,12 +9525,12 @@
       <c r="E251" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F251" s="75" t="s">
+      <c r="F251" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="72">
+      <c r="A252" s="52">
         <v>234</v>
       </c>
       <c r="B252" s="18">
@@ -9545,12 +9545,12 @@
       <c r="E252" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F252" s="75" t="s">
+      <c r="F252" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="72">
+      <c r="A253" s="52">
         <v>235</v>
       </c>
       <c r="B253" s="18">
@@ -9565,12 +9565,12 @@
       <c r="E253" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F253" s="75" t="s">
+      <c r="F253" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="72">
+      <c r="A254" s="52">
         <v>236</v>
       </c>
       <c r="B254" s="18">
@@ -9585,12 +9585,12 @@
       <c r="E254" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F254" s="75" t="s">
+      <c r="F254" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="72">
+      <c r="A255" s="52">
         <v>237</v>
       </c>
       <c r="B255" s="18">
@@ -9605,12 +9605,12 @@
       <c r="E255" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F255" s="75" t="s">
+      <c r="F255" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="72">
+      <c r="A256" s="52">
         <v>238</v>
       </c>
       <c r="B256" s="18">
@@ -9625,12 +9625,12 @@
       <c r="E256" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F256" s="75" t="s">
+      <c r="F256" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="72">
+      <c r="A257" s="52">
         <v>239</v>
       </c>
       <c r="B257" s="18">
@@ -9645,12 +9645,12 @@
       <c r="E257" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F257" s="75" t="s">
+      <c r="F257" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="72">
+      <c r="A258" s="52">
         <v>240</v>
       </c>
       <c r="B258" s="18">
@@ -9665,12 +9665,12 @@
       <c r="E258" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F258" s="75" t="s">
+      <c r="F258" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="72">
+      <c r="A259" s="52">
         <v>241</v>
       </c>
       <c r="B259" s="18">
@@ -9685,12 +9685,12 @@
       <c r="E259" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F259" s="75" t="s">
+      <c r="F259" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="72">
+      <c r="A260" s="52">
         <v>242</v>
       </c>
       <c r="B260" s="18">
@@ -9705,12 +9705,12 @@
       <c r="E260" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F260" s="75" t="s">
+      <c r="F260" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="72">
+      <c r="A261" s="52">
         <v>243</v>
       </c>
       <c r="B261" s="18">
@@ -9725,12 +9725,12 @@
       <c r="E261" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F261" s="75" t="s">
+      <c r="F261" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="72">
+      <c r="A262" s="52">
         <v>244</v>
       </c>
       <c r="B262" s="18">
@@ -9745,12 +9745,12 @@
       <c r="E262" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F262" s="75" t="s">
+      <c r="F262" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="72">
+      <c r="A263" s="52">
         <v>245</v>
       </c>
       <c r="B263" s="18">
@@ -9765,12 +9765,12 @@
       <c r="E263" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F263" s="75" t="s">
+      <c r="F263" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="72">
+      <c r="A264" s="52">
         <v>246</v>
       </c>
       <c r="B264" s="18">
@@ -9785,12 +9785,12 @@
       <c r="E264" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F264" s="75" t="s">
+      <c r="F264" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="72">
+      <c r="A265" s="52">
         <v>247</v>
       </c>
       <c r="B265" s="18">
@@ -9805,12 +9805,12 @@
       <c r="E265" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F265" s="75" t="s">
+      <c r="F265" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="72">
+      <c r="A266" s="52">
         <v>248</v>
       </c>
       <c r="B266" s="18">
@@ -9825,12 +9825,12 @@
       <c r="E266" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F266" s="75" t="s">
+      <c r="F266" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="72">
+      <c r="A267" s="52">
         <v>249</v>
       </c>
       <c r="B267" s="18">
@@ -9845,12 +9845,12 @@
       <c r="E267" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F267" s="75" t="s">
+      <c r="F267" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="72">
+      <c r="A268" s="52">
         <v>250</v>
       </c>
       <c r="B268" s="18">
@@ -9865,12 +9865,12 @@
       <c r="E268" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F268" s="75" t="s">
+      <c r="F268" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="72">
+      <c r="A269" s="52">
         <v>251</v>
       </c>
       <c r="B269" s="18">
@@ -9885,12 +9885,12 @@
       <c r="E269" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F269" s="75" t="s">
+      <c r="F269" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="72">
+      <c r="A270" s="52">
         <v>252</v>
       </c>
       <c r="B270" s="18">
@@ -9905,12 +9905,12 @@
       <c r="E270" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F270" s="75" t="s">
+      <c r="F270" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="72">
+      <c r="A271" s="52">
         <v>253</v>
       </c>
       <c r="B271" s="18">
@@ -9925,12 +9925,12 @@
       <c r="E271" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F271" s="75" t="s">
+      <c r="F271" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="72">
+      <c r="A272" s="52">
         <v>254</v>
       </c>
       <c r="B272" s="18">
@@ -9945,12 +9945,12 @@
       <c r="E272" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F272" s="75" t="s">
+      <c r="F272" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="72">
+      <c r="A273" s="52">
         <v>255</v>
       </c>
       <c r="B273" s="18">
@@ -9965,12 +9965,12 @@
       <c r="E273" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F273" s="75" t="s">
+      <c r="F273" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="72">
+      <c r="A274" s="52">
         <v>256</v>
       </c>
       <c r="B274" s="18">
@@ -9985,12 +9985,12 @@
       <c r="E274" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F274" s="75" t="s">
+      <c r="F274" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="72">
+      <c r="A275" s="52">
         <v>257</v>
       </c>
       <c r="B275" s="18">
@@ -10005,12 +10005,12 @@
       <c r="E275" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F275" s="75" t="s">
+      <c r="F275" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="72">
+      <c r="A276" s="52">
         <v>258</v>
       </c>
       <c r="B276" s="18">
@@ -10025,12 +10025,12 @@
       <c r="E276" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F276" s="75" t="s">
+      <c r="F276" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="72">
+      <c r="A277" s="52">
         <v>259</v>
       </c>
       <c r="B277" s="18">
@@ -10045,12 +10045,12 @@
       <c r="E277" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F277" s="75" t="s">
+      <c r="F277" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="72">
+      <c r="A278" s="52">
         <v>260</v>
       </c>
       <c r="B278" s="18">
@@ -10065,12 +10065,12 @@
       <c r="E278" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F278" s="75" t="s">
+      <c r="F278" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="72">
+      <c r="A279" s="52">
         <v>261</v>
       </c>
       <c r="B279" s="18">
@@ -10085,12 +10085,12 @@
       <c r="E279" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F279" s="75" t="s">
+      <c r="F279" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="72">
+      <c r="A280" s="52">
         <v>262</v>
       </c>
       <c r="B280" s="18">
@@ -10105,12 +10105,12 @@
       <c r="E280" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F280" s="75" t="s">
+      <c r="F280" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="72">
+      <c r="A281" s="52">
         <v>263</v>
       </c>
       <c r="B281" s="18">
@@ -10125,12 +10125,12 @@
       <c r="E281" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F281" s="75" t="s">
+      <c r="F281" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="72">
+      <c r="A282" s="52">
         <v>264</v>
       </c>
       <c r="B282" s="18">
@@ -10145,12 +10145,12 @@
       <c r="E282" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F282" s="75" t="s">
+      <c r="F282" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="72">
+      <c r="A283" s="52">
         <v>265</v>
       </c>
       <c r="B283" s="18">
@@ -10165,12 +10165,12 @@
       <c r="E283" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F283" s="75" t="s">
+      <c r="F283" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="72">
+      <c r="A284" s="52">
         <v>266</v>
       </c>
       <c r="B284" s="18">
@@ -10185,12 +10185,12 @@
       <c r="E284" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F284" s="75" t="s">
+      <c r="F284" s="55" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="72">
+      <c r="A285" s="52">
         <v>267</v>
       </c>
       <c r="B285" s="18">
@@ -10205,12 +10205,12 @@
       <c r="E285" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F285" s="75" t="s">
+      <c r="F285" s="55" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="72">
+      <c r="A286" s="52">
         <v>268</v>
       </c>
       <c r="B286" s="18">
@@ -10225,12 +10225,12 @@
       <c r="E286" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F286" s="75" t="s">
+      <c r="F286" s="55" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="72">
+      <c r="A287" s="52">
         <v>269</v>
       </c>
       <c r="B287" s="18">
@@ -10245,12 +10245,12 @@
       <c r="E287" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F287" s="75" t="s">
+      <c r="F287" s="55" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="72">
+      <c r="A288" s="52">
         <v>270</v>
       </c>
       <c r="B288" s="18">
@@ -10265,12 +10265,12 @@
       <c r="E288" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F288" s="75" t="s">
+      <c r="F288" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="72">
+      <c r="A289" s="52">
         <v>271</v>
       </c>
       <c r="B289" s="18">
@@ -10285,12 +10285,12 @@
       <c r="E289" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F289" s="75" t="s">
+      <c r="F289" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="72">
+      <c r="A290" s="52">
         <v>272</v>
       </c>
       <c r="B290" s="18">
@@ -10305,12 +10305,12 @@
       <c r="E290" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F290" s="75" t="s">
+      <c r="F290" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="72">
+      <c r="A291" s="52">
         <v>273</v>
       </c>
       <c r="B291" s="18">
@@ -10325,12 +10325,12 @@
       <c r="E291" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F291" s="75" t="s">
+      <c r="F291" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="72">
+      <c r="A292" s="52">
         <v>274</v>
       </c>
       <c r="B292" s="18">
@@ -10345,12 +10345,12 @@
       <c r="E292" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F292" s="75" t="s">
+      <c r="F292" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="72">
+      <c r="A293" s="52">
         <v>275</v>
       </c>
       <c r="B293" s="18">
@@ -10365,12 +10365,12 @@
       <c r="E293" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F293" s="75" t="s">
+      <c r="F293" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="72">
+      <c r="A294" s="52">
         <v>276</v>
       </c>
       <c r="B294" s="18">
@@ -10385,12 +10385,12 @@
       <c r="E294" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F294" s="75" t="s">
+      <c r="F294" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="72">
+      <c r="A295" s="52">
         <v>277</v>
       </c>
       <c r="B295" s="18">
@@ -10405,12 +10405,12 @@
       <c r="E295" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F295" s="75" t="s">
+      <c r="F295" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="72">
+      <c r="A296" s="52">
         <v>278</v>
       </c>
       <c r="B296" s="18">
@@ -10425,12 +10425,12 @@
       <c r="E296" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F296" s="75" t="s">
+      <c r="F296" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="72">
+      <c r="A297" s="52">
         <v>279</v>
       </c>
       <c r="B297" s="18">
@@ -10445,12 +10445,12 @@
       <c r="E297" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F297" s="75" t="s">
+      <c r="F297" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="72">
+      <c r="A298" s="52">
         <v>280</v>
       </c>
       <c r="B298" s="18">
@@ -10465,12 +10465,12 @@
       <c r="E298" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F298" s="75" t="s">
+      <c r="F298" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="72">
+      <c r="A299" s="52">
         <v>281</v>
       </c>
       <c r="B299" s="18">
@@ -10485,12 +10485,12 @@
       <c r="E299" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F299" s="75" t="s">
+      <c r="F299" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="72">
+      <c r="A300" s="52">
         <v>282</v>
       </c>
       <c r="B300" s="18">
@@ -10505,12 +10505,12 @@
       <c r="E300" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F300" s="75" t="s">
+      <c r="F300" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="72">
+      <c r="A301" s="52">
         <v>283</v>
       </c>
       <c r="B301" s="18">
@@ -10525,12 +10525,12 @@
       <c r="E301" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F301" s="75" t="s">
+      <c r="F301" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="72">
+      <c r="A302" s="52">
         <v>284</v>
       </c>
       <c r="B302" s="18">
@@ -10545,12 +10545,12 @@
       <c r="E302" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F302" s="75" t="s">
+      <c r="F302" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="72">
+      <c r="A303" s="52">
         <v>285</v>
       </c>
       <c r="B303" s="18">
@@ -10565,12 +10565,12 @@
       <c r="E303" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F303" s="75" t="s">
+      <c r="F303" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="72">
+      <c r="A304" s="52">
         <v>286</v>
       </c>
       <c r="B304" s="18">
@@ -10585,24 +10585,24 @@
       <c r="E304" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F304" s="75" t="s">
+      <c r="F304" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="73">
+      <c r="A305" s="53">
         <v>287</v>
       </c>
-      <c r="B305" s="77">
+      <c r="B305" s="57">
         <v>470</v>
       </c>
-      <c r="C305" s="77">
+      <c r="C305" s="57">
         <v>443</v>
       </c>
-      <c r="D305" s="77" t="s">
+      <c r="D305" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="E305" s="77" t="s">
+      <c r="E305" s="57" t="s">
         <v>135</v>
       </c>
       <c r="F305" s="16" t="s">
@@ -10611,16 +10611,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10631,7 +10631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D0F664-B80C-4266-AC3A-2754557571D9}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:I22"/>
     </sheetView>
   </sheetViews>
@@ -10652,30 +10652,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
       <c r="P1" s="27"/>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="65"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -10732,16 +10732,16 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="60"/>
       <c r="L4" s="24" t="s">
         <v>16</v>
       </c>
@@ -10771,22 +10771,22 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="58" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="62"/>
       <c r="L5" s="24" t="s">
         <v>17</v>
       </c>
@@ -10816,22 +10816,22 @@
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="64"/>
       <c r="L6" s="24" t="s">
         <v>20</v>
       </c>
@@ -11020,22 +11020,22 @@
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="61">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="58">
+      <c r="C10" s="62"/>
+      <c r="D10" s="61">
         <v>0.1</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58">
+      <c r="E10" s="62"/>
+      <c r="F10" s="61">
         <v>2E-3</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="58">
+      <c r="G10" s="62"/>
+      <c r="H10" s="61">
         <v>0.01</v>
       </c>
-      <c r="I10" s="59"/>
+      <c r="I10" s="62"/>
       <c r="L10" s="24" t="s">
         <v>24</v>
       </c>
@@ -11065,22 +11065,22 @@
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="65">
         <v>3882</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50">
+      <c r="C11" s="66"/>
+      <c r="D11" s="65">
         <v>2110</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50">
+      <c r="E11" s="66"/>
+      <c r="F11" s="65">
         <v>844</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52">
+      <c r="G11" s="66"/>
+      <c r="H11" s="78">
         <v>410</v>
       </c>
-      <c r="I11" s="53"/>
+      <c r="I11" s="79"/>
       <c r="L11" s="24" t="s">
         <v>25</v>
       </c>
@@ -11213,16 +11213,16 @@
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="60"/>
       <c r="L15" s="24" t="s">
         <v>29</v>
       </c>
@@ -11252,22 +11252,22 @@
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="62"/>
+      <c r="F16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="58" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="62"/>
       <c r="L16" s="24" t="s">
         <v>30</v>
       </c>
@@ -11297,22 +11297,22 @@
       <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="54" t="s">
+      <c r="G17" s="77"/>
+      <c r="H17" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="64"/>
       <c r="L17" s="24" t="s">
         <v>31</v>
       </c>
@@ -11501,22 +11501,22 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="61">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58">
+      <c r="C21" s="62"/>
+      <c r="D21" s="61">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58">
+      <c r="E21" s="62"/>
+      <c r="F21" s="61">
         <v>0.67</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="58">
+      <c r="G21" s="62"/>
+      <c r="H21" s="61">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I21" s="59"/>
+      <c r="I21" s="62"/>
       <c r="L21" s="24" t="s">
         <v>35</v>
       </c>
@@ -11546,22 +11546,22 @@
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="65">
         <v>3972</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="50">
+      <c r="C22" s="66"/>
+      <c r="D22" s="65">
         <v>865</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="50">
+      <c r="E22" s="66"/>
+      <c r="F22" s="65">
         <v>847</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="50">
+      <c r="G22" s="66"/>
+      <c r="H22" s="65">
         <v>209</v>
       </c>
-      <c r="I22" s="51"/>
+      <c r="I22" s="66"/>
       <c r="L22" s="24" t="s">
         <v>36</v>
       </c>
@@ -13117,13 +13117,19 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="Q1:T2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -13140,19 +13146,13 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="Q1:T2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13163,8 +13163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13183,30 +13183,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
       <c r="P1" s="27"/>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="65"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -13263,16 +13263,16 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="60"/>
       <c r="L4" s="24" t="s">
         <v>16</v>
       </c>
@@ -13302,22 +13302,22 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="58" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="62"/>
       <c r="L5" s="24" t="s">
         <v>17</v>
       </c>
@@ -13347,22 +13347,22 @@
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="64"/>
       <c r="L6" s="24" t="s">
         <v>20</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>338</v>
       </c>
       <c r="G7" s="4">
-        <v>3383</v>
+        <v>383</v>
       </c>
       <c r="H7" s="3">
         <v>326</v>
@@ -13551,22 +13551,22 @@
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="61">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="58">
+      <c r="C10" s="62"/>
+      <c r="D10" s="61">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58">
+      <c r="E10" s="62"/>
+      <c r="F10" s="61">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="58">
+      <c r="G10" s="62"/>
+      <c r="H10" s="61">
         <v>0.01</v>
       </c>
-      <c r="I10" s="59"/>
+      <c r="I10" s="62"/>
       <c r="L10" s="24" t="s">
         <v>24</v>
       </c>
@@ -13596,22 +13596,22 @@
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="65">
         <v>1610</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50">
+      <c r="C11" s="66"/>
+      <c r="D11" s="65">
         <v>923</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50">
+      <c r="E11" s="66"/>
+      <c r="F11" s="65">
         <v>336</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52">
+      <c r="G11" s="66"/>
+      <c r="H11" s="78">
         <v>176</v>
       </c>
-      <c r="I11" s="53"/>
+      <c r="I11" s="79"/>
       <c r="L11" s="24" t="s">
         <v>25</v>
       </c>
@@ -13744,16 +13744,16 @@
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="60"/>
       <c r="L15" s="24" t="s">
         <v>29</v>
       </c>
@@ -13783,22 +13783,22 @@
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="62"/>
+      <c r="F16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="58" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="62"/>
       <c r="L16" s="24" t="s">
         <v>30</v>
       </c>
@@ -13828,22 +13828,22 @@
       <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="54" t="s">
+      <c r="G17" s="77"/>
+      <c r="H17" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="64"/>
       <c r="L17" s="24" t="s">
         <v>31</v>
       </c>
@@ -14032,22 +14032,22 @@
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="61">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58">
+      <c r="C21" s="62"/>
+      <c r="D21" s="61">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58">
+      <c r="E21" s="62"/>
+      <c r="F21" s="61">
         <v>0.32</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="58">
+      <c r="G21" s="62"/>
+      <c r="H21" s="61">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I21" s="59"/>
+      <c r="I21" s="62"/>
       <c r="L21" s="24" t="s">
         <v>35</v>
       </c>
@@ -14077,22 +14077,22 @@
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="65">
         <v>1497</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="50">
+      <c r="C22" s="66"/>
+      <c r="D22" s="65">
         <v>865</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="50">
+      <c r="E22" s="66"/>
+      <c r="F22" s="65">
         <v>309</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="50">
+      <c r="G22" s="66"/>
+      <c r="H22" s="65">
         <v>164</v>
       </c>
-      <c r="I22" s="51"/>
+      <c r="I22" s="66"/>
       <c r="L22" s="24" t="s">
         <v>36</v>
       </c>
@@ -14396,8 +14396,8 @@
       </c>
     </row>
     <row r="33" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
       <c r="L33" s="24" t="s">
         <v>47</v>
       </c>
@@ -15101,6 +15101,29 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="Q1:T2"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B17:C17"/>
@@ -15115,29 +15138,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="Q1:T2"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
